--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>no</t>
+    <t>no (Norwegian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1862">
   <si>
     <t>en</t>
   </si>
@@ -1496,6 +1496,12 @@
   </si>
   <si>
     <t>Eksplosiv</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Øye</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5943,7 +5949,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8489,12 +8495,12 @@
         <v>497</v>
       </c>
       <c r="B317" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B318" t="s">
         <v>499</v>
@@ -8505,20 +8511,20 @@
         <v>500</v>
       </c>
       <c r="B319" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B320" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B321" t="s">
         <v>503</v>
@@ -8529,44 +8535,44 @@
         <v>504</v>
       </c>
       <c r="B322" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B323" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B324" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B325" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B326" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B327" t="s">
         <v>510</v>
@@ -8593,12 +8599,12 @@
         <v>515</v>
       </c>
       <c r="B330" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B331" t="s">
         <v>517</v>
@@ -8665,12 +8671,12 @@
         <v>532</v>
       </c>
       <c r="B339" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B340" t="s">
         <v>534</v>
@@ -8689,12 +8695,12 @@
         <v>537</v>
       </c>
       <c r="B342" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B343" t="s">
         <v>539</v>
@@ -8825,12 +8831,12 @@
         <v>570</v>
       </c>
       <c r="B359" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B360" t="s">
         <v>572</v>
@@ -8857,12 +8863,12 @@
         <v>577</v>
       </c>
       <c r="B363" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B364" t="s">
         <v>579</v>
@@ -8889,12 +8895,12 @@
         <v>584</v>
       </c>
       <c r="B367" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B368" t="s">
         <v>586</v>
@@ -9393,36 +9399,36 @@
         <v>709</v>
       </c>
       <c r="B430" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B431" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B432" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B433" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B434" t="s">
         <v>714</v>
@@ -9433,12 +9439,12 @@
         <v>715</v>
       </c>
       <c r="B435" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B436" t="s">
         <v>717</v>
@@ -9449,12 +9455,12 @@
         <v>718</v>
       </c>
       <c r="B437" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B438" t="s">
         <v>720</v>
@@ -9513,12 +9519,12 @@
         <v>733</v>
       </c>
       <c r="B445" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B446" t="s">
         <v>735</v>
@@ -9529,12 +9535,12 @@
         <v>736</v>
       </c>
       <c r="B447" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B448" t="s">
         <v>738</v>
@@ -9545,12 +9551,12 @@
         <v>739</v>
       </c>
       <c r="B449" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B450" t="s">
         <v>741</v>
@@ -9569,12 +9575,12 @@
         <v>744</v>
       </c>
       <c r="B452" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B453" t="s">
         <v>746</v>
@@ -9593,20 +9599,20 @@
         <v>749</v>
       </c>
       <c r="B455" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B456" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B457" t="s">
         <v>752</v>
@@ -9641,44 +9647,44 @@
         <v>759</v>
       </c>
       <c r="B461" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B462" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B463" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B464" t="s">
-        <v>496</v>
+        <v>763</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B465" t="s">
-        <v>763</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B466" t="s">
         <v>765</v>
@@ -9697,12 +9703,12 @@
         <v>768</v>
       </c>
       <c r="B468" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B469" t="s">
         <v>770</v>
@@ -9713,36 +9719,36 @@
         <v>771</v>
       </c>
       <c r="B470" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B471" t="s">
-        <v>496</v>
+        <v>773</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B472" t="s">
-        <v>773</v>
+        <v>498</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B473" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B474" t="s">
         <v>776</v>
@@ -9753,12 +9759,12 @@
         <v>777</v>
       </c>
       <c r="B475" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B476" t="s">
         <v>779</v>
@@ -9777,12 +9783,12 @@
         <v>782</v>
       </c>
       <c r="B478" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B479" t="s">
         <v>784</v>
@@ -9793,36 +9799,36 @@
         <v>785</v>
       </c>
       <c r="B480" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B481" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B482" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B483" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B484" t="s">
         <v>790</v>
@@ -9833,36 +9839,36 @@
         <v>791</v>
       </c>
       <c r="B485" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B486" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B487" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B488" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B489" t="s">
         <v>796</v>
@@ -10017,20 +10023,20 @@
         <v>833</v>
       </c>
       <c r="B508" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B509" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B510" t="s">
         <v>836</v>
@@ -10041,12 +10047,12 @@
         <v>837</v>
       </c>
       <c r="B511" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B512" t="s">
         <v>839</v>
@@ -10057,12 +10063,12 @@
         <v>840</v>
       </c>
       <c r="B513" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B514" t="s">
         <v>842</v>
@@ -10081,36 +10087,36 @@
         <v>845</v>
       </c>
       <c r="B516" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B517" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B518" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B519" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B520" t="s">
         <v>850</v>
@@ -10137,12 +10143,12 @@
         <v>855</v>
       </c>
       <c r="B523" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B524" t="s">
         <v>857</v>
@@ -10193,12 +10199,12 @@
         <v>868</v>
       </c>
       <c r="B530" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B531" t="s">
         <v>870</v>
@@ -10217,20 +10223,20 @@
         <v>873</v>
       </c>
       <c r="B533" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B534" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B535" t="s">
         <v>876</v>
@@ -10249,28 +10255,28 @@
         <v>879</v>
       </c>
       <c r="B537" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B538" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B539" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B540" t="s">
         <v>883</v>
@@ -10289,12 +10295,12 @@
         <v>886</v>
       </c>
       <c r="B542" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B543" t="s">
         <v>888</v>
@@ -10305,20 +10311,20 @@
         <v>889</v>
       </c>
       <c r="B544" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B545" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B546" t="s">
         <v>892</v>
@@ -10337,36 +10343,36 @@
         <v>895</v>
       </c>
       <c r="B548" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B549" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B550" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B551" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B552" t="s">
         <v>900</v>
@@ -10377,12 +10383,12 @@
         <v>901</v>
       </c>
       <c r="B553" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B554" t="s">
         <v>903</v>
@@ -10441,28 +10447,28 @@
         <v>916</v>
       </c>
       <c r="B561" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B562" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B563" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B564" t="s">
         <v>920</v>
@@ -10505,12 +10511,12 @@
         <v>929</v>
       </c>
       <c r="B569" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B570" t="s">
         <v>931</v>
@@ -10529,12 +10535,12 @@
         <v>934</v>
       </c>
       <c r="B572" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B573" t="s">
         <v>936</v>
@@ -10545,36 +10551,36 @@
         <v>937</v>
       </c>
       <c r="B574" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B575" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B576" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B577" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B578" t="s">
         <v>942</v>
@@ -10593,36 +10599,36 @@
         <v>945</v>
       </c>
       <c r="B580" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B581" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B582" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B583" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B584" t="s">
         <v>950</v>
@@ -10633,28 +10639,28 @@
         <v>951</v>
       </c>
       <c r="B585" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B586" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B587" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B588" t="s">
         <v>955</v>
@@ -10665,12 +10671,12 @@
         <v>956</v>
       </c>
       <c r="B589" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B590" t="s">
         <v>958</v>
@@ -10681,12 +10687,12 @@
         <v>959</v>
       </c>
       <c r="B591" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B592" t="s">
         <v>961</v>
@@ -10753,12 +10759,12 @@
         <v>976</v>
       </c>
       <c r="B600" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B601" t="s">
         <v>978</v>
@@ -10777,20 +10783,20 @@
         <v>981</v>
       </c>
       <c r="B603" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B604" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B605" t="s">
         <v>984</v>
@@ -10809,12 +10815,12 @@
         <v>987</v>
       </c>
       <c r="B607" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B608" t="s">
         <v>989</v>
@@ -10833,20 +10839,20 @@
         <v>992</v>
       </c>
       <c r="B610" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B611" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B612" t="s">
         <v>995</v>
@@ -10857,12 +10863,12 @@
         <v>996</v>
       </c>
       <c r="B613" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B614" t="s">
         <v>998</v>
@@ -10881,12 +10887,12 @@
         <v>1001</v>
       </c>
       <c r="B616" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B617" t="s">
         <v>1003</v>
@@ -10929,132 +10935,132 @@
         <v>1012</v>
       </c>
       <c r="B622" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B623" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B624" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B625" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B626" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B627" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B628" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B629" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B630" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B631" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B632" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B633" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B634" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B635" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B636" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B637" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B638" t="s">
         <v>1029</v>
@@ -11065,12 +11071,12 @@
         <v>1030</v>
       </c>
       <c r="B639" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B640" t="s">
         <v>1032</v>
@@ -11081,20 +11087,20 @@
         <v>1033</v>
       </c>
       <c r="B641" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B642" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B643" t="s">
         <v>1036</v>
@@ -11129,28 +11135,28 @@
         <v>1043</v>
       </c>
       <c r="B647" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B648" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B649" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B650" t="s">
         <v>1047</v>
@@ -11161,12 +11167,12 @@
         <v>1048</v>
       </c>
       <c r="B651" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B652" t="s">
         <v>1050</v>
@@ -11193,20 +11199,20 @@
         <v>1055</v>
       </c>
       <c r="B655" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B656" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B657" t="s">
         <v>1058</v>
@@ -11217,12 +11223,12 @@
         <v>1059</v>
       </c>
       <c r="B658" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B659" t="s">
         <v>1061</v>
@@ -11241,20 +11247,20 @@
         <v>1064</v>
       </c>
       <c r="B661" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B662" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B663" t="s">
         <v>1067</v>
@@ -11265,20 +11271,20 @@
         <v>1068</v>
       </c>
       <c r="B664" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B665" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B666" t="s">
         <v>1071</v>
@@ -11289,12 +11295,12 @@
         <v>1072</v>
       </c>
       <c r="B667" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B668" t="s">
         <v>1074</v>
@@ -11313,12 +11319,12 @@
         <v>1077</v>
       </c>
       <c r="B670" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B671" t="s">
         <v>1079</v>
@@ -11337,12 +11343,12 @@
         <v>1082</v>
       </c>
       <c r="B673" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B674" t="s">
         <v>1084</v>
@@ -11353,20 +11359,20 @@
         <v>1085</v>
       </c>
       <c r="B675" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B676" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B677" t="s">
         <v>1088</v>
@@ -11393,20 +11399,20 @@
         <v>1093</v>
       </c>
       <c r="B680" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B681" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B682" t="s">
         <v>1096</v>
@@ -11465,12 +11471,12 @@
         <v>1109</v>
       </c>
       <c r="B689" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B690" t="s">
         <v>1111</v>
@@ -11489,12 +11495,12 @@
         <v>1114</v>
       </c>
       <c r="B692" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B693" t="s">
         <v>1116</v>
@@ -11537,36 +11543,36 @@
         <v>1125</v>
       </c>
       <c r="B698" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B699" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B700" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B701" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B702" t="s">
         <v>1130</v>
@@ -11577,28 +11583,28 @@
         <v>1131</v>
       </c>
       <c r="B703" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B704" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B705" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B706" t="s">
         <v>1135</v>
@@ -11609,36 +11615,36 @@
         <v>1136</v>
       </c>
       <c r="B707" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B708" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B709" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B710" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B711" t="s">
         <v>1141</v>
@@ -11665,36 +11671,36 @@
         <v>1146</v>
       </c>
       <c r="B714" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B715" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B716" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B717" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B718" t="s">
         <v>1151</v>
@@ -11705,12 +11711,12 @@
         <v>1152</v>
       </c>
       <c r="B719" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B720" t="s">
         <v>1154</v>
@@ -11721,12 +11727,12 @@
         <v>1155</v>
       </c>
       <c r="B721" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B722" t="s">
         <v>1157</v>
@@ -11761,12 +11767,12 @@
         <v>1164</v>
       </c>
       <c r="B726" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B727" t="s">
         <v>1166</v>
@@ -11785,12 +11791,12 @@
         <v>1169</v>
       </c>
       <c r="B729" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B730" t="s">
         <v>1171</v>
@@ -11809,12 +11815,12 @@
         <v>1174</v>
       </c>
       <c r="B732" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B733" t="s">
         <v>1176</v>
@@ -11825,20 +11831,20 @@
         <v>1177</v>
       </c>
       <c r="B734" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B735" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B736" t="s">
         <v>1180</v>
@@ -11849,12 +11855,12 @@
         <v>1181</v>
       </c>
       <c r="B737" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B738" t="s">
         <v>1183</v>
@@ -11873,12 +11879,12 @@
         <v>1186</v>
       </c>
       <c r="B740" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B741" t="s">
         <v>1188</v>
@@ -11889,28 +11895,28 @@
         <v>1189</v>
       </c>
       <c r="B742" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B743" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B744" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B745" t="s">
         <v>1193</v>
@@ -11977,12 +11983,12 @@
         <v>1208</v>
       </c>
       <c r="B753" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B754" t="s">
         <v>1210</v>
@@ -12009,12 +12015,12 @@
         <v>1215</v>
       </c>
       <c r="B757" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B758" t="s">
         <v>1217</v>
@@ -12025,20 +12031,20 @@
         <v>1218</v>
       </c>
       <c r="B759" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B760" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B761" t="s">
         <v>1221</v>
@@ -12081,12 +12087,12 @@
         <v>1230</v>
       </c>
       <c r="B766" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B767" t="s">
         <v>1232</v>
@@ -12105,12 +12111,12 @@
         <v>1235</v>
       </c>
       <c r="B769" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B770" t="s">
         <v>1237</v>
@@ -12121,12 +12127,12 @@
         <v>1238</v>
       </c>
       <c r="B771" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B772" t="s">
         <v>1240</v>
@@ -12145,12 +12151,12 @@
         <v>1243</v>
       </c>
       <c r="B774" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B775" t="s">
         <v>1245</v>
@@ -12161,12 +12167,12 @@
         <v>1246</v>
       </c>
       <c r="B776" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B777" t="s">
         <v>1248</v>
@@ -12193,20 +12199,20 @@
         <v>1253</v>
       </c>
       <c r="B780" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B781" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B782" t="s">
         <v>1256</v>
@@ -12233,12 +12239,12 @@
         <v>1261</v>
       </c>
       <c r="B785" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B786" t="s">
         <v>1263</v>
@@ -12249,20 +12255,20 @@
         <v>1264</v>
       </c>
       <c r="B787" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B788" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B789" t="s">
         <v>1267</v>
@@ -12273,36 +12279,36 @@
         <v>1268</v>
       </c>
       <c r="B790" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B791" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B792" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B793" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B794" t="s">
         <v>1273</v>
@@ -12313,20 +12319,20 @@
         <v>1274</v>
       </c>
       <c r="B795" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B796" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B797" t="s">
         <v>1277</v>
@@ -12377,36 +12383,36 @@
         <v>1288</v>
       </c>
       <c r="B803" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B804" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B805" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B806" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B807" t="s">
         <v>1293</v>
@@ -12417,12 +12423,12 @@
         <v>1294</v>
       </c>
       <c r="B808" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B809" t="s">
         <v>1296</v>
@@ -12449,20 +12455,20 @@
         <v>1301</v>
       </c>
       <c r="B812" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B813" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B814" t="s">
         <v>1304</v>
@@ -12481,12 +12487,12 @@
         <v>1307</v>
       </c>
       <c r="B816" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B817" t="s">
         <v>1309</v>
@@ -12513,12 +12519,12 @@
         <v>1314</v>
       </c>
       <c r="B820" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B821" t="s">
         <v>1316</v>
@@ -12529,12 +12535,12 @@
         <v>1317</v>
       </c>
       <c r="B822" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B823" t="s">
         <v>1319</v>
@@ -12545,12 +12551,12 @@
         <v>1320</v>
       </c>
       <c r="B824" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B825" t="s">
         <v>1322</v>
@@ -12561,12 +12567,12 @@
         <v>1323</v>
       </c>
       <c r="B826" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B827" t="s">
         <v>1325</v>
@@ -12577,12 +12583,12 @@
         <v>1326</v>
       </c>
       <c r="B828" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B829" t="s">
         <v>1328</v>
@@ -12593,28 +12599,28 @@
         <v>1329</v>
       </c>
       <c r="B830" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B832" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B833" t="s">
         <v>1333</v>
@@ -12625,36 +12631,36 @@
         <v>1334</v>
       </c>
       <c r="B834" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B835" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B836" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B837" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B838" t="s">
         <v>1339</v>
@@ -12665,28 +12671,28 @@
         <v>1340</v>
       </c>
       <c r="B839" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B840" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B841" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B842" t="s">
         <v>1344</v>
@@ -12801,60 +12807,60 @@
         <v>1371</v>
       </c>
       <c r="B856" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B857" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B858" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B859" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B860" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B861" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B862" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B863" t="s">
         <v>1379</v>
@@ -12865,20 +12871,20 @@
         <v>1380</v>
       </c>
       <c r="B864" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B865" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B866" t="s">
         <v>1383</v>
@@ -12961,12 +12967,12 @@
         <v>1402</v>
       </c>
       <c r="B876" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B877" t="s">
         <v>1404</v>
@@ -12985,28 +12991,28 @@
         <v>1407</v>
       </c>
       <c r="B879" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B880" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B881" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B882" t="s">
         <v>1411</v>
@@ -13017,12 +13023,12 @@
         <v>1412</v>
       </c>
       <c r="B883" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B884" t="s">
         <v>1414</v>
@@ -13033,12 +13039,12 @@
         <v>1415</v>
       </c>
       <c r="B885" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B886" t="s">
         <v>1417</v>
@@ -13049,12 +13055,12 @@
         <v>1418</v>
       </c>
       <c r="B887" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B888" t="s">
         <v>1420</v>
@@ -13065,12 +13071,12 @@
         <v>1421</v>
       </c>
       <c r="B889" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B890" t="s">
         <v>1423</v>
@@ -13081,12 +13087,12 @@
         <v>1424</v>
       </c>
       <c r="B891" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B892" t="s">
         <v>1426</v>
@@ -13097,28 +13103,28 @@
         <v>1427</v>
       </c>
       <c r="B893" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B894" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B895" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B896" t="s">
         <v>1431</v>
@@ -13161,60 +13167,60 @@
         <v>1440</v>
       </c>
       <c r="B901" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B902" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B903" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B904" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B905" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B906" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B907" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B908" t="s">
         <v>1448</v>
@@ -13241,28 +13247,28 @@
         <v>1453</v>
       </c>
       <c r="B911" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B912" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B913" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B914" t="s">
         <v>1457</v>
@@ -13305,20 +13311,20 @@
         <v>1466</v>
       </c>
       <c r="B919" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B920" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B921" t="s">
         <v>1469</v>
@@ -13353,12 +13359,12 @@
         <v>1476</v>
       </c>
       <c r="B925" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B926" t="s">
         <v>1478</v>
@@ -13377,20 +13383,20 @@
         <v>1481</v>
       </c>
       <c r="B928" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B929" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B930" t="s">
         <v>1484</v>
@@ -13417,12 +13423,12 @@
         <v>1489</v>
       </c>
       <c r="B933" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B934" t="s">
         <v>1491</v>
@@ -13449,28 +13455,28 @@
         <v>1496</v>
       </c>
       <c r="B937" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B938" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B939" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B940" t="s">
         <v>1500</v>
@@ -13489,52 +13495,52 @@
         <v>1503</v>
       </c>
       <c r="B942" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B943" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B944" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B945" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B946" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B947" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B948" t="s">
         <v>1510</v>
@@ -13569,20 +13575,20 @@
         <v>1517</v>
       </c>
       <c r="B952" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B953" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B954" t="s">
         <v>1520</v>
@@ -13617,12 +13623,12 @@
         <v>1527</v>
       </c>
       <c r="B958" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B959" t="s">
         <v>1529</v>
@@ -13633,36 +13639,36 @@
         <v>1530</v>
       </c>
       <c r="B960" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B961" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B962" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B964" t="s">
         <v>1535</v>
@@ -13713,28 +13719,28 @@
         <v>1546</v>
       </c>
       <c r="B970" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B971" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B972" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B973" t="s">
         <v>1550</v>
@@ -13753,20 +13759,20 @@
         <v>1553</v>
       </c>
       <c r="B975" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B976" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B977" t="s">
         <v>1556</v>
@@ -13793,20 +13799,20 @@
         <v>1561</v>
       </c>
       <c r="B980" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B981" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B982" t="s">
         <v>1564</v>
@@ -13825,20 +13831,20 @@
         <v>1567</v>
       </c>
       <c r="B984" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B985" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B986" t="s">
         <v>1570</v>
@@ -13865,12 +13871,12 @@
         <v>1575</v>
       </c>
       <c r="B989" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B990" t="s">
         <v>1577</v>
@@ -13889,28 +13895,28 @@
         <v>1580</v>
       </c>
       <c r="B992" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B993" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B994" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B995" t="s">
         <v>1584</v>
@@ -13945,28 +13951,28 @@
         <v>1591</v>
       </c>
       <c r="B999" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1000" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1001" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1002" t="s">
         <v>1595</v>
@@ -13985,36 +13991,36 @@
         <v>1598</v>
       </c>
       <c r="B1004" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1005" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1006" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1007" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1008" t="s">
         <v>1603</v>
@@ -14033,36 +14039,36 @@
         <v>1606</v>
       </c>
       <c r="B1010" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1011" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1012" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1013" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1014" t="s">
         <v>1611</v>
@@ -14081,12 +14087,12 @@
         <v>1614</v>
       </c>
       <c r="B1016" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1017" t="s">
         <v>1616</v>
@@ -14113,12 +14119,12 @@
         <v>1621</v>
       </c>
       <c r="B1020" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1021" t="s">
         <v>1623</v>
@@ -14129,20 +14135,20 @@
         <v>1624</v>
       </c>
       <c r="B1022" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1023" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1024" t="s">
         <v>1627</v>
@@ -14161,52 +14167,52 @@
         <v>1630</v>
       </c>
       <c r="B1026" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1027" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1028" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1029" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1030" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1031" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1032" t="s">
         <v>1637</v>
@@ -14217,12 +14223,12 @@
         <v>1638</v>
       </c>
       <c r="B1033" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1034" t="s">
         <v>1640</v>
@@ -14249,12 +14255,12 @@
         <v>1645</v>
       </c>
       <c r="B1037" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1038" t="s">
         <v>1647</v>
@@ -14273,12 +14279,12 @@
         <v>1650</v>
       </c>
       <c r="B1040" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1041" t="s">
         <v>1652</v>
@@ -14297,12 +14303,12 @@
         <v>1655</v>
       </c>
       <c r="B1043" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1044" t="s">
         <v>1657</v>
@@ -14417,12 +14423,12 @@
         <v>1684</v>
       </c>
       <c r="B1058" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1059" t="s">
         <v>1686</v>
@@ -14441,12 +14447,12 @@
         <v>1689</v>
       </c>
       <c r="B1061" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1062" t="s">
         <v>1691</v>
@@ -14481,28 +14487,28 @@
         <v>1698</v>
       </c>
       <c r="B1066" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1067" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1068" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1069" t="s">
         <v>1702</v>
@@ -14513,28 +14519,28 @@
         <v>1703</v>
       </c>
       <c r="B1070" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1071" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1072" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1073" t="s">
         <v>1707</v>
@@ -14545,12 +14551,12 @@
         <v>1708</v>
       </c>
       <c r="B1074" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1075" t="s">
         <v>1710</v>
@@ -14569,20 +14575,20 @@
         <v>1713</v>
       </c>
       <c r="B1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1078" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1079" t="s">
         <v>1716</v>
@@ -14601,12 +14607,12 @@
         <v>1719</v>
       </c>
       <c r="B1081" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1082" t="s">
         <v>1721</v>
@@ -14649,12 +14655,12 @@
         <v>1730</v>
       </c>
       <c r="B1087" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1088" t="s">
         <v>1732</v>
@@ -14697,12 +14703,12 @@
         <v>1741</v>
       </c>
       <c r="B1093" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1094" t="s">
         <v>1743</v>
@@ -14721,12 +14727,12 @@
         <v>1746</v>
       </c>
       <c r="B1096" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1097" t="s">
         <v>1748</v>
@@ -14737,28 +14743,28 @@
         <v>1749</v>
       </c>
       <c r="B1098" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1099" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1100" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1101" t="s">
         <v>1753</v>
@@ -14785,28 +14791,28 @@
         <v>1758</v>
       </c>
       <c r="B1104" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1105" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1106" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1107" t="s">
         <v>1762</v>
@@ -14849,20 +14855,20 @@
         <v>1771</v>
       </c>
       <c r="B1112" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1113" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1114" t="s">
         <v>1774</v>
@@ -14961,44 +14967,44 @@
         <v>1797</v>
       </c>
       <c r="B1126" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1127" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1128" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1129" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1130" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1131" t="s">
         <v>1803</v>
@@ -15009,36 +15015,36 @@
         <v>1804</v>
       </c>
       <c r="B1132" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1133" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1134" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1135" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1136" t="s">
         <v>1809</v>
@@ -15057,12 +15063,12 @@
         <v>1812</v>
       </c>
       <c r="B1138" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1139" t="s">
         <v>1814</v>
@@ -15121,12 +15127,12 @@
         <v>1827</v>
       </c>
       <c r="B1146" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1147" t="s">
         <v>1829</v>
@@ -15169,36 +15175,36 @@
         <v>1838</v>
       </c>
       <c r="B1152" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1153" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1154" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1155" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1156" t="s">
         <v>1843</v>
@@ -15209,28 +15215,28 @@
         <v>1844</v>
       </c>
       <c r="B1157" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1158" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1159" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1160" t="s">
         <v>1848</v>
@@ -15241,44 +15247,44 @@
         <v>1849</v>
       </c>
       <c r="B1161" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1162" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1163" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1164" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1165" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1166" t="s">
         <v>1855</v>
@@ -15289,12 +15295,12 @@
         <v>1856</v>
       </c>
       <c r="B1167" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1168" t="s">
         <v>1858</v>
@@ -15305,11 +15311,19 @@
         <v>1859</v>
       </c>
       <c r="B1169" t="s">
-        <v>1859</v>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1864">
   <si>
     <t>en</t>
   </si>
@@ -4499,6 +4499,12 @@
   </si>
   <si>
     <t>De syv dødssyndene</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Kolossens skygge</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5949,7 +5955,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13463,28 +13469,28 @@
         <v>1498</v>
       </c>
       <c r="B938" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B939" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B940" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B941" t="s">
         <v>1502</v>
@@ -13503,52 +13509,52 @@
         <v>1505</v>
       </c>
       <c r="B943" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B944" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B945" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B946" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B947" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B948" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B949" t="s">
         <v>1512</v>
@@ -13583,20 +13589,20 @@
         <v>1519</v>
       </c>
       <c r="B953" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B954" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B955" t="s">
         <v>1522</v>
@@ -13631,12 +13637,12 @@
         <v>1529</v>
       </c>
       <c r="B959" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B960" t="s">
         <v>1531</v>
@@ -13647,36 +13653,36 @@
         <v>1532</v>
       </c>
       <c r="B961" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B962" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B963" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B964" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B965" t="s">
         <v>1537</v>
@@ -13727,28 +13733,28 @@
         <v>1548</v>
       </c>
       <c r="B971" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B972" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B973" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B974" t="s">
         <v>1552</v>
@@ -13767,20 +13773,20 @@
         <v>1555</v>
       </c>
       <c r="B976" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B977" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B978" t="s">
         <v>1558</v>
@@ -13807,20 +13813,20 @@
         <v>1563</v>
       </c>
       <c r="B981" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B982" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B983" t="s">
         <v>1566</v>
@@ -13839,20 +13845,20 @@
         <v>1569</v>
       </c>
       <c r="B985" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B986" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B987" t="s">
         <v>1572</v>
@@ -13879,12 +13885,12 @@
         <v>1577</v>
       </c>
       <c r="B990" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B991" t="s">
         <v>1579</v>
@@ -13903,28 +13909,28 @@
         <v>1582</v>
       </c>
       <c r="B993" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B994" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B995" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B996" t="s">
         <v>1586</v>
@@ -13959,28 +13965,28 @@
         <v>1593</v>
       </c>
       <c r="B1000" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1001" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1002" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1003" t="s">
         <v>1597</v>
@@ -13999,36 +14005,36 @@
         <v>1600</v>
       </c>
       <c r="B1005" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1006" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1007" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1008" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1009" t="s">
         <v>1605</v>
@@ -14047,36 +14053,36 @@
         <v>1608</v>
       </c>
       <c r="B1011" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1012" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1013" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1014" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1015" t="s">
         <v>1613</v>
@@ -14095,12 +14101,12 @@
         <v>1616</v>
       </c>
       <c r="B1017" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1018" t="s">
         <v>1618</v>
@@ -14127,12 +14133,12 @@
         <v>1623</v>
       </c>
       <c r="B1021" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1022" t="s">
         <v>1625</v>
@@ -14143,20 +14149,20 @@
         <v>1626</v>
       </c>
       <c r="B1023" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1024" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1025" t="s">
         <v>1629</v>
@@ -14175,52 +14181,52 @@
         <v>1632</v>
       </c>
       <c r="B1027" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1028" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1029" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1030" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1031" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1032" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1033" t="s">
         <v>1639</v>
@@ -14231,12 +14237,12 @@
         <v>1640</v>
       </c>
       <c r="B1034" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1035" t="s">
         <v>1642</v>
@@ -14263,12 +14269,12 @@
         <v>1647</v>
       </c>
       <c r="B1038" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1039" t="s">
         <v>1649</v>
@@ -14287,12 +14293,12 @@
         <v>1652</v>
       </c>
       <c r="B1041" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1042" t="s">
         <v>1654</v>
@@ -14311,12 +14317,12 @@
         <v>1657</v>
       </c>
       <c r="B1044" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1045" t="s">
         <v>1659</v>
@@ -14431,12 +14437,12 @@
         <v>1686</v>
       </c>
       <c r="B1059" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1060" t="s">
         <v>1688</v>
@@ -14455,12 +14461,12 @@
         <v>1691</v>
       </c>
       <c r="B1062" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1063" t="s">
         <v>1693</v>
@@ -14495,28 +14501,28 @@
         <v>1700</v>
       </c>
       <c r="B1067" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1068" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1069" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1070" t="s">
         <v>1704</v>
@@ -14527,28 +14533,28 @@
         <v>1705</v>
       </c>
       <c r="B1071" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1072" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1073" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1074" t="s">
         <v>1709</v>
@@ -14559,12 +14565,12 @@
         <v>1710</v>
       </c>
       <c r="B1075" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1076" t="s">
         <v>1712</v>
@@ -14583,20 +14589,20 @@
         <v>1715</v>
       </c>
       <c r="B1078" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1079" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1080" t="s">
         <v>1718</v>
@@ -14615,12 +14621,12 @@
         <v>1721</v>
       </c>
       <c r="B1082" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1083" t="s">
         <v>1723</v>
@@ -14663,12 +14669,12 @@
         <v>1732</v>
       </c>
       <c r="B1088" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1089" t="s">
         <v>1734</v>
@@ -14711,12 +14717,12 @@
         <v>1743</v>
       </c>
       <c r="B1094" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1095" t="s">
         <v>1745</v>
@@ -14735,12 +14741,12 @@
         <v>1748</v>
       </c>
       <c r="B1097" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1098" t="s">
         <v>1750</v>
@@ -14751,28 +14757,28 @@
         <v>1751</v>
       </c>
       <c r="B1099" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1100" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1101" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1102" t="s">
         <v>1755</v>
@@ -14799,28 +14805,28 @@
         <v>1760</v>
       </c>
       <c r="B1105" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1106" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1107" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1108" t="s">
         <v>1764</v>
@@ -14863,20 +14869,20 @@
         <v>1773</v>
       </c>
       <c r="B1113" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1114" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1115" t="s">
         <v>1776</v>
@@ -14975,44 +14981,44 @@
         <v>1799</v>
       </c>
       <c r="B1127" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1128" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1129" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1130" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1131" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1132" t="s">
         <v>1805</v>
@@ -15023,36 +15029,36 @@
         <v>1806</v>
       </c>
       <c r="B1133" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1134" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1135" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1136" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1137" t="s">
         <v>1811</v>
@@ -15071,12 +15077,12 @@
         <v>1814</v>
       </c>
       <c r="B1139" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1140" t="s">
         <v>1816</v>
@@ -15135,12 +15141,12 @@
         <v>1829</v>
       </c>
       <c r="B1147" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1148" t="s">
         <v>1831</v>
@@ -15183,36 +15189,36 @@
         <v>1840</v>
       </c>
       <c r="B1153" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1154" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1155" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1156" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1157" t="s">
         <v>1845</v>
@@ -15223,28 +15229,28 @@
         <v>1846</v>
       </c>
       <c r="B1158" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1159" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1160" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1161" t="s">
         <v>1850</v>
@@ -15255,44 +15261,44 @@
         <v>1851</v>
       </c>
       <c r="B1162" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1163" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1164" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1165" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1166" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1167" t="s">
         <v>1857</v>
@@ -15303,12 +15309,12 @@
         <v>1858</v>
       </c>
       <c r="B1168" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1169" t="s">
         <v>1860</v>
@@ -15319,11 +15325,19 @@
         <v>1861</v>
       </c>
       <c r="B1170" t="s">
-        <v>1861</v>
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1863</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1868">
   <si>
     <t>en</t>
   </si>
@@ -3581,6 +3581,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montasjer av kaos</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5961,7 +5967,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11907,28 +11913,28 @@
         <v>1190</v>
       </c>
       <c r="B742" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B743" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B744" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B745" t="s">
         <v>1194</v>
@@ -11995,12 +12001,12 @@
         <v>1209</v>
       </c>
       <c r="B753" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B754" t="s">
         <v>1211</v>
@@ -12027,12 +12033,12 @@
         <v>1216</v>
       </c>
       <c r="B757" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B758" t="s">
         <v>1218</v>
@@ -12043,20 +12049,20 @@
         <v>1219</v>
       </c>
       <c r="B759" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B760" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B761" t="s">
         <v>1222</v>
@@ -12099,12 +12105,12 @@
         <v>1231</v>
       </c>
       <c r="B766" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B767" t="s">
         <v>1233</v>
@@ -12123,12 +12129,12 @@
         <v>1236</v>
       </c>
       <c r="B769" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B770" t="s">
         <v>1238</v>
@@ -12139,12 +12145,12 @@
         <v>1239</v>
       </c>
       <c r="B771" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B772" t="s">
         <v>1241</v>
@@ -12163,12 +12169,12 @@
         <v>1244</v>
       </c>
       <c r="B774" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B775" t="s">
         <v>1246</v>
@@ -12179,12 +12185,12 @@
         <v>1247</v>
       </c>
       <c r="B776" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B777" t="s">
         <v>1249</v>
@@ -12211,20 +12217,20 @@
         <v>1254</v>
       </c>
       <c r="B780" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B781" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B782" t="s">
         <v>1257</v>
@@ -12251,12 +12257,12 @@
         <v>1262</v>
       </c>
       <c r="B785" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B786" t="s">
         <v>1264</v>
@@ -12267,20 +12273,20 @@
         <v>1265</v>
       </c>
       <c r="B787" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B788" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B789" t="s">
         <v>1268</v>
@@ -12291,36 +12297,36 @@
         <v>1269</v>
       </c>
       <c r="B790" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B791" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B792" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B793" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B794" t="s">
         <v>1274</v>
@@ -12331,20 +12337,20 @@
         <v>1275</v>
       </c>
       <c r="B795" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B796" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B797" t="s">
         <v>1278</v>
@@ -12395,36 +12401,36 @@
         <v>1289</v>
       </c>
       <c r="B803" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B804" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B805" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B806" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B807" t="s">
         <v>1294</v>
@@ -12435,12 +12441,12 @@
         <v>1295</v>
       </c>
       <c r="B808" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B809" t="s">
         <v>1297</v>
@@ -12467,20 +12473,20 @@
         <v>1302</v>
       </c>
       <c r="B812" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B813" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B814" t="s">
         <v>1305</v>
@@ -12499,12 +12505,12 @@
         <v>1308</v>
       </c>
       <c r="B816" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B817" t="s">
         <v>1310</v>
@@ -12531,12 +12537,12 @@
         <v>1315</v>
       </c>
       <c r="B820" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B821" t="s">
         <v>1317</v>
@@ -12547,12 +12553,12 @@
         <v>1318</v>
       </c>
       <c r="B822" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B823" t="s">
         <v>1320</v>
@@ -12563,12 +12569,12 @@
         <v>1321</v>
       </c>
       <c r="B824" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B825" t="s">
         <v>1323</v>
@@ -12579,12 +12585,12 @@
         <v>1324</v>
       </c>
       <c r="B826" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B827" t="s">
         <v>1326</v>
@@ -12595,12 +12601,12 @@
         <v>1327</v>
       </c>
       <c r="B828" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B829" t="s">
         <v>1329</v>
@@ -12611,28 +12617,28 @@
         <v>1330</v>
       </c>
       <c r="B830" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B831" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B832" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B833" t="s">
         <v>1334</v>
@@ -12643,36 +12649,36 @@
         <v>1335</v>
       </c>
       <c r="B834" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B835" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B836" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B837" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B838" t="s">
         <v>1340</v>
@@ -12683,28 +12689,28 @@
         <v>1341</v>
       </c>
       <c r="B839" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B840" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B841" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B842" t="s">
         <v>1345</v>
@@ -12819,60 +12825,60 @@
         <v>1372</v>
       </c>
       <c r="B856" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B857" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B858" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B859" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B860" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B861" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B862" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B863" t="s">
         <v>1380</v>
@@ -12883,20 +12889,20 @@
         <v>1381</v>
       </c>
       <c r="B864" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B865" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B866" t="s">
         <v>1384</v>
@@ -12979,12 +12985,12 @@
         <v>1403</v>
       </c>
       <c r="B876" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B877" t="s">
         <v>1405</v>
@@ -13003,28 +13009,28 @@
         <v>1408</v>
       </c>
       <c r="B879" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B880" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B881" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B882" t="s">
         <v>1412</v>
@@ -13035,12 +13041,12 @@
         <v>1413</v>
       </c>
       <c r="B883" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B884" t="s">
         <v>1415</v>
@@ -13051,12 +13057,12 @@
         <v>1416</v>
       </c>
       <c r="B885" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B886" t="s">
         <v>1418</v>
@@ -13067,12 +13073,12 @@
         <v>1419</v>
       </c>
       <c r="B887" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B888" t="s">
         <v>1421</v>
@@ -13083,12 +13089,12 @@
         <v>1422</v>
       </c>
       <c r="B889" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B890" t="s">
         <v>1424</v>
@@ -13099,12 +13105,12 @@
         <v>1425</v>
       </c>
       <c r="B891" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B892" t="s">
         <v>1427</v>
@@ -13115,28 +13121,28 @@
         <v>1428</v>
       </c>
       <c r="B893" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B894" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B895" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B896" t="s">
         <v>1432</v>
@@ -13179,60 +13185,60 @@
         <v>1441</v>
       </c>
       <c r="B901" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B902" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B903" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B904" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B905" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B906" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B907" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B908" t="s">
         <v>1449</v>
@@ -13259,28 +13265,28 @@
         <v>1454</v>
       </c>
       <c r="B911" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B912" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B913" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B914" t="s">
         <v>1458</v>
@@ -13323,20 +13329,20 @@
         <v>1467</v>
       </c>
       <c r="B919" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B920" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B921" t="s">
         <v>1470</v>
@@ -13371,12 +13377,12 @@
         <v>1477</v>
       </c>
       <c r="B925" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B926" t="s">
         <v>1479</v>
@@ -13395,20 +13401,20 @@
         <v>1482</v>
       </c>
       <c r="B928" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B929" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B930" t="s">
         <v>1485</v>
@@ -13435,12 +13441,12 @@
         <v>1490</v>
       </c>
       <c r="B933" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B934" t="s">
         <v>1492</v>
@@ -13475,28 +13481,28 @@
         <v>1499</v>
       </c>
       <c r="B938" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B939" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B940" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B941" t="s">
         <v>1503</v>
@@ -13515,52 +13521,52 @@
         <v>1506</v>
       </c>
       <c r="B943" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B944" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B945" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B946" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B947" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B948" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B949" t="s">
         <v>1513</v>
@@ -13595,20 +13601,20 @@
         <v>1520</v>
       </c>
       <c r="B953" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B954" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B955" t="s">
         <v>1523</v>
@@ -13643,12 +13649,12 @@
         <v>1530</v>
       </c>
       <c r="B959" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B960" t="s">
         <v>1532</v>
@@ -13659,36 +13665,36 @@
         <v>1533</v>
       </c>
       <c r="B961" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B962" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B963" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B964" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B965" t="s">
         <v>1538</v>
@@ -13739,28 +13745,28 @@
         <v>1549</v>
       </c>
       <c r="B971" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B972" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B973" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B974" t="s">
         <v>1553</v>
@@ -13779,20 +13785,20 @@
         <v>1556</v>
       </c>
       <c r="B976" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B977" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B978" t="s">
         <v>1559</v>
@@ -13819,20 +13825,20 @@
         <v>1564</v>
       </c>
       <c r="B981" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B982" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B983" t="s">
         <v>1567</v>
@@ -13851,20 +13857,20 @@
         <v>1570</v>
       </c>
       <c r="B985" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B986" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B987" t="s">
         <v>1573</v>
@@ -13891,12 +13897,12 @@
         <v>1578</v>
       </c>
       <c r="B990" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B991" t="s">
         <v>1580</v>
@@ -13915,28 +13921,28 @@
         <v>1583</v>
       </c>
       <c r="B993" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B994" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B995" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B996" t="s">
         <v>1587</v>
@@ -13971,28 +13977,28 @@
         <v>1594</v>
       </c>
       <c r="B1000" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1001" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1002" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1003" t="s">
         <v>1598</v>
@@ -14011,36 +14017,36 @@
         <v>1601</v>
       </c>
       <c r="B1005" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1006" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1007" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1008" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1009" t="s">
         <v>1606</v>
@@ -14059,36 +14065,36 @@
         <v>1609</v>
       </c>
       <c r="B1011" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1012" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1013" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1014" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1015" t="s">
         <v>1614</v>
@@ -14107,12 +14113,12 @@
         <v>1617</v>
       </c>
       <c r="B1017" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1018" t="s">
         <v>1619</v>
@@ -14139,12 +14145,12 @@
         <v>1624</v>
       </c>
       <c r="B1021" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1022" t="s">
         <v>1626</v>
@@ -14155,20 +14161,20 @@
         <v>1627</v>
       </c>
       <c r="B1023" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1024" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1025" t="s">
         <v>1630</v>
@@ -14187,52 +14193,52 @@
         <v>1633</v>
       </c>
       <c r="B1027" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1028" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1029" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1030" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1031" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1032" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1033" t="s">
         <v>1640</v>
@@ -14243,12 +14249,12 @@
         <v>1641</v>
       </c>
       <c r="B1034" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1035" t="s">
         <v>1643</v>
@@ -14275,12 +14281,12 @@
         <v>1648</v>
       </c>
       <c r="B1038" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1039" t="s">
         <v>1650</v>
@@ -14299,12 +14305,12 @@
         <v>1653</v>
       </c>
       <c r="B1041" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1042" t="s">
         <v>1655</v>
@@ -14331,12 +14337,12 @@
         <v>1660</v>
       </c>
       <c r="B1045" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1046" t="s">
         <v>1662</v>
@@ -14451,12 +14457,12 @@
         <v>1689</v>
       </c>
       <c r="B1060" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1061" t="s">
         <v>1691</v>
@@ -14475,12 +14481,12 @@
         <v>1694</v>
       </c>
       <c r="B1063" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1064" t="s">
         <v>1696</v>
@@ -14515,28 +14521,28 @@
         <v>1703</v>
       </c>
       <c r="B1068" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1069" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1070" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1071" t="s">
         <v>1707</v>
@@ -14547,28 +14553,28 @@
         <v>1708</v>
       </c>
       <c r="B1072" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1073" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1074" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1075" t="s">
         <v>1712</v>
@@ -14579,12 +14585,12 @@
         <v>1713</v>
       </c>
       <c r="B1076" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1077" t="s">
         <v>1715</v>
@@ -14603,20 +14609,20 @@
         <v>1718</v>
       </c>
       <c r="B1079" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1080" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1081" t="s">
         <v>1721</v>
@@ -14635,12 +14641,12 @@
         <v>1724</v>
       </c>
       <c r="B1083" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1084" t="s">
         <v>1726</v>
@@ -14683,12 +14689,12 @@
         <v>1735</v>
       </c>
       <c r="B1089" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1090" t="s">
         <v>1737</v>
@@ -14731,12 +14737,12 @@
         <v>1746</v>
       </c>
       <c r="B1095" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1096" t="s">
         <v>1748</v>
@@ -14755,12 +14761,12 @@
         <v>1751</v>
       </c>
       <c r="B1098" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1099" t="s">
         <v>1753</v>
@@ -14771,28 +14777,28 @@
         <v>1754</v>
       </c>
       <c r="B1100" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1101" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1102" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1103" t="s">
         <v>1758</v>
@@ -14819,28 +14825,28 @@
         <v>1763</v>
       </c>
       <c r="B1106" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1107" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1108" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1109" t="s">
         <v>1767</v>
@@ -14883,20 +14889,20 @@
         <v>1776</v>
       </c>
       <c r="B1114" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1115" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1116" t="s">
         <v>1779</v>
@@ -14995,44 +15001,44 @@
         <v>1802</v>
       </c>
       <c r="B1128" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1129" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1133" t="s">
         <v>1808</v>
@@ -15043,36 +15049,36 @@
         <v>1809</v>
       </c>
       <c r="B1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1137" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1138" t="s">
         <v>1814</v>
@@ -15091,12 +15097,12 @@
         <v>1817</v>
       </c>
       <c r="B1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1141" t="s">
         <v>1819</v>
@@ -15155,12 +15161,12 @@
         <v>1832</v>
       </c>
       <c r="B1148" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1149" t="s">
         <v>1834</v>
@@ -15203,36 +15209,36 @@
         <v>1843</v>
       </c>
       <c r="B1154" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1158" t="s">
         <v>1848</v>
@@ -15243,28 +15249,28 @@
         <v>1849</v>
       </c>
       <c r="B1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1162" t="s">
         <v>1853</v>
@@ -15275,44 +15281,44 @@
         <v>1854</v>
       </c>
       <c r="B1163" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1165" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1166" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1167" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1168" t="s">
         <v>1860</v>
@@ -15323,12 +15329,12 @@
         <v>1861</v>
       </c>
       <c r="B1169" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1170" t="s">
         <v>1863</v>
@@ -15339,19 +15345,27 @@
         <v>1864</v>
       </c>
       <c r="B1171" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1172" t="s">
-        <v>1865</v>
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1867</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1870">
   <si>
     <t>en</t>
   </si>
@@ -2063,6 +2063,12 @@
   </si>
   <si>
     <t>Skrifttype (Regnbue)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Skrifttype (rød meislet sandstein)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5967,7 +5973,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9417,36 +9423,36 @@
         <v>710</v>
       </c>
       <c r="B430" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B431" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B432" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B433" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B434" t="s">
         <v>715</v>
@@ -9457,12 +9463,12 @@
         <v>716</v>
       </c>
       <c r="B435" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B436" t="s">
         <v>718</v>
@@ -9473,12 +9479,12 @@
         <v>719</v>
       </c>
       <c r="B437" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B438" t="s">
         <v>721</v>
@@ -9537,12 +9543,12 @@
         <v>734</v>
       </c>
       <c r="B445" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B446" t="s">
         <v>736</v>
@@ -9553,12 +9559,12 @@
         <v>737</v>
       </c>
       <c r="B447" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B448" t="s">
         <v>739</v>
@@ -9569,12 +9575,12 @@
         <v>740</v>
       </c>
       <c r="B449" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B450" t="s">
         <v>742</v>
@@ -9593,12 +9599,12 @@
         <v>745</v>
       </c>
       <c r="B452" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B453" t="s">
         <v>747</v>
@@ -9617,20 +9623,20 @@
         <v>750</v>
       </c>
       <c r="B455" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B456" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B457" t="s">
         <v>753</v>
@@ -9665,44 +9671,44 @@
         <v>760</v>
       </c>
       <c r="B461" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B462" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B463" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B464" t="s">
-        <v>498</v>
+        <v>764</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B465" t="s">
-        <v>764</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B466" t="s">
         <v>766</v>
@@ -9721,12 +9727,12 @@
         <v>769</v>
       </c>
       <c r="B468" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B469" t="s">
         <v>771</v>
@@ -9737,36 +9743,36 @@
         <v>772</v>
       </c>
       <c r="B470" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B471" t="s">
-        <v>498</v>
+        <v>774</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B472" t="s">
-        <v>774</v>
+        <v>498</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B473" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B474" t="s">
         <v>777</v>
@@ -9777,12 +9783,12 @@
         <v>778</v>
       </c>
       <c r="B475" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B476" t="s">
         <v>780</v>
@@ -9801,12 +9807,12 @@
         <v>783</v>
       </c>
       <c r="B478" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B479" t="s">
         <v>785</v>
@@ -9817,36 +9823,36 @@
         <v>786</v>
       </c>
       <c r="B480" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B481" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B482" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B483" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B484" t="s">
         <v>791</v>
@@ -9857,36 +9863,36 @@
         <v>792</v>
       </c>
       <c r="B485" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B486" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B487" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B488" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B489" t="s">
         <v>797</v>
@@ -10041,20 +10047,20 @@
         <v>834</v>
       </c>
       <c r="B508" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B509" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B510" t="s">
         <v>837</v>
@@ -10065,12 +10071,12 @@
         <v>838</v>
       </c>
       <c r="B511" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B512" t="s">
         <v>840</v>
@@ -10081,12 +10087,12 @@
         <v>841</v>
       </c>
       <c r="B513" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B514" t="s">
         <v>843</v>
@@ -10105,36 +10111,36 @@
         <v>846</v>
       </c>
       <c r="B516" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B517" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B518" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B519" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B520" t="s">
         <v>851</v>
@@ -10161,12 +10167,12 @@
         <v>856</v>
       </c>
       <c r="B523" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B524" t="s">
         <v>858</v>
@@ -10217,12 +10223,12 @@
         <v>869</v>
       </c>
       <c r="B530" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B531" t="s">
         <v>871</v>
@@ -10241,20 +10247,20 @@
         <v>874</v>
       </c>
       <c r="B533" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B535" t="s">
         <v>877</v>
@@ -10273,28 +10279,28 @@
         <v>880</v>
       </c>
       <c r="B537" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B538" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B539" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B540" t="s">
         <v>884</v>
@@ -10313,12 +10319,12 @@
         <v>887</v>
       </c>
       <c r="B542" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B543" t="s">
         <v>889</v>
@@ -10329,20 +10335,20 @@
         <v>890</v>
       </c>
       <c r="B544" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B545" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B546" t="s">
         <v>893</v>
@@ -10361,36 +10367,36 @@
         <v>896</v>
       </c>
       <c r="B548" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B549" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B550" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B551" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B552" t="s">
         <v>901</v>
@@ -10401,12 +10407,12 @@
         <v>902</v>
       </c>
       <c r="B553" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B554" t="s">
         <v>904</v>
@@ -10465,28 +10471,28 @@
         <v>917</v>
       </c>
       <c r="B561" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B562" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B563" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B564" t="s">
         <v>921</v>
@@ -10529,12 +10535,12 @@
         <v>930</v>
       </c>
       <c r="B569" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B570" t="s">
         <v>932</v>
@@ -10553,12 +10559,12 @@
         <v>935</v>
       </c>
       <c r="B572" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B573" t="s">
         <v>937</v>
@@ -10569,36 +10575,36 @@
         <v>938</v>
       </c>
       <c r="B574" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B575" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B576" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B577" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B578" t="s">
         <v>943</v>
@@ -10617,36 +10623,36 @@
         <v>946</v>
       </c>
       <c r="B580" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B581" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B582" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B583" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B584" t="s">
         <v>951</v>
@@ -10657,28 +10663,28 @@
         <v>952</v>
       </c>
       <c r="B585" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B586" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B587" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B588" t="s">
         <v>956</v>
@@ -10689,12 +10695,12 @@
         <v>957</v>
       </c>
       <c r="B589" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B590" t="s">
         <v>959</v>
@@ -10705,12 +10711,12 @@
         <v>960</v>
       </c>
       <c r="B591" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B592" t="s">
         <v>962</v>
@@ -10777,12 +10783,12 @@
         <v>977</v>
       </c>
       <c r="B600" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B601" t="s">
         <v>979</v>
@@ -10801,20 +10807,20 @@
         <v>982</v>
       </c>
       <c r="B603" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B604" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B605" t="s">
         <v>985</v>
@@ -10833,12 +10839,12 @@
         <v>988</v>
       </c>
       <c r="B607" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B608" t="s">
         <v>990</v>
@@ -10857,20 +10863,20 @@
         <v>993</v>
       </c>
       <c r="B610" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B611" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B612" t="s">
         <v>996</v>
@@ -10881,12 +10887,12 @@
         <v>997</v>
       </c>
       <c r="B613" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B614" t="s">
         <v>999</v>
@@ -10905,12 +10911,12 @@
         <v>1002</v>
       </c>
       <c r="B616" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B617" t="s">
         <v>1004</v>
@@ -10953,132 +10959,132 @@
         <v>1013</v>
       </c>
       <c r="B622" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B623" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B624" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B625" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B626" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B627" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B628" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B629" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B630" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B631" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B632" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B633" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B634" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B635" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B636" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B637" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B638" t="s">
         <v>1030</v>
@@ -11089,12 +11095,12 @@
         <v>1031</v>
       </c>
       <c r="B639" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B640" t="s">
         <v>1033</v>
@@ -11105,20 +11111,20 @@
         <v>1034</v>
       </c>
       <c r="B641" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B642" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B643" t="s">
         <v>1037</v>
@@ -11153,28 +11159,28 @@
         <v>1044</v>
       </c>
       <c r="B647" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B648" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B649" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B650" t="s">
         <v>1048</v>
@@ -11185,12 +11191,12 @@
         <v>1049</v>
       </c>
       <c r="B651" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B652" t="s">
         <v>1051</v>
@@ -11217,20 +11223,20 @@
         <v>1056</v>
       </c>
       <c r="B655" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B656" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B657" t="s">
         <v>1059</v>
@@ -11241,12 +11247,12 @@
         <v>1060</v>
       </c>
       <c r="B658" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B659" t="s">
         <v>1062</v>
@@ -11265,20 +11271,20 @@
         <v>1065</v>
       </c>
       <c r="B661" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B662" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B663" t="s">
         <v>1068</v>
@@ -11289,20 +11295,20 @@
         <v>1069</v>
       </c>
       <c r="B664" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B665" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B666" t="s">
         <v>1072</v>
@@ -11313,12 +11319,12 @@
         <v>1073</v>
       </c>
       <c r="B667" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B668" t="s">
         <v>1075</v>
@@ -11337,12 +11343,12 @@
         <v>1078</v>
       </c>
       <c r="B670" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B671" t="s">
         <v>1080</v>
@@ -11361,12 +11367,12 @@
         <v>1083</v>
       </c>
       <c r="B673" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B674" t="s">
         <v>1085</v>
@@ -11377,20 +11383,20 @@
         <v>1086</v>
       </c>
       <c r="B675" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B676" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B677" t="s">
         <v>1089</v>
@@ -11417,20 +11423,20 @@
         <v>1094</v>
       </c>
       <c r="B680" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B681" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B682" t="s">
         <v>1097</v>
@@ -11489,12 +11495,12 @@
         <v>1110</v>
       </c>
       <c r="B689" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B690" t="s">
         <v>1112</v>
@@ -11513,12 +11519,12 @@
         <v>1115</v>
       </c>
       <c r="B692" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B693" t="s">
         <v>1117</v>
@@ -11561,36 +11567,36 @@
         <v>1126</v>
       </c>
       <c r="B698" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B699" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B700" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B701" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B702" t="s">
         <v>1131</v>
@@ -11601,28 +11607,28 @@
         <v>1132</v>
       </c>
       <c r="B703" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B704" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B705" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B706" t="s">
         <v>1136</v>
@@ -11633,36 +11639,36 @@
         <v>1137</v>
       </c>
       <c r="B707" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B708" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B709" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B710" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B711" t="s">
         <v>1142</v>
@@ -11689,36 +11695,36 @@
         <v>1147</v>
       </c>
       <c r="B714" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B715" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B716" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B717" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B718" t="s">
         <v>1152</v>
@@ -11729,12 +11735,12 @@
         <v>1153</v>
       </c>
       <c r="B719" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B720" t="s">
         <v>1155</v>
@@ -11745,12 +11751,12 @@
         <v>1156</v>
       </c>
       <c r="B721" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B722" t="s">
         <v>1158</v>
@@ -11785,12 +11791,12 @@
         <v>1165</v>
       </c>
       <c r="B726" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B727" t="s">
         <v>1167</v>
@@ -11809,12 +11815,12 @@
         <v>1170</v>
       </c>
       <c r="B729" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B730" t="s">
         <v>1172</v>
@@ -11833,12 +11839,12 @@
         <v>1175</v>
       </c>
       <c r="B732" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B733" t="s">
         <v>1177</v>
@@ -11849,20 +11855,20 @@
         <v>1178</v>
       </c>
       <c r="B734" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B735" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B736" t="s">
         <v>1181</v>
@@ -11873,12 +11879,12 @@
         <v>1182</v>
       </c>
       <c r="B737" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B738" t="s">
         <v>1184</v>
@@ -11897,12 +11903,12 @@
         <v>1187</v>
       </c>
       <c r="B740" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B741" t="s">
         <v>1189</v>
@@ -11921,28 +11927,28 @@
         <v>1192</v>
       </c>
       <c r="B743" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B744" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B745" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B746" t="s">
         <v>1196</v>
@@ -12009,12 +12015,12 @@
         <v>1211</v>
       </c>
       <c r="B754" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B755" t="s">
         <v>1213</v>
@@ -12041,12 +12047,12 @@
         <v>1218</v>
       </c>
       <c r="B758" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B759" t="s">
         <v>1220</v>
@@ -12057,20 +12063,20 @@
         <v>1221</v>
       </c>
       <c r="B760" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B761" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B762" t="s">
         <v>1224</v>
@@ -12113,12 +12119,12 @@
         <v>1233</v>
       </c>
       <c r="B767" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B768" t="s">
         <v>1235</v>
@@ -12137,12 +12143,12 @@
         <v>1238</v>
       </c>
       <c r="B770" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B771" t="s">
         <v>1240</v>
@@ -12153,12 +12159,12 @@
         <v>1241</v>
       </c>
       <c r="B772" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B773" t="s">
         <v>1243</v>
@@ -12177,12 +12183,12 @@
         <v>1246</v>
       </c>
       <c r="B775" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B776" t="s">
         <v>1248</v>
@@ -12193,12 +12199,12 @@
         <v>1249</v>
       </c>
       <c r="B777" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B778" t="s">
         <v>1251</v>
@@ -12225,20 +12231,20 @@
         <v>1256</v>
       </c>
       <c r="B781" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B782" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B783" t="s">
         <v>1259</v>
@@ -12265,12 +12271,12 @@
         <v>1264</v>
       </c>
       <c r="B786" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B787" t="s">
         <v>1266</v>
@@ -12281,20 +12287,20 @@
         <v>1267</v>
       </c>
       <c r="B788" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B789" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B790" t="s">
         <v>1270</v>
@@ -12305,36 +12311,36 @@
         <v>1271</v>
       </c>
       <c r="B791" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B792" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B793" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B794" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B795" t="s">
         <v>1276</v>
@@ -12345,20 +12351,20 @@
         <v>1277</v>
       </c>
       <c r="B796" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B797" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B798" t="s">
         <v>1280</v>
@@ -12409,36 +12415,36 @@
         <v>1291</v>
       </c>
       <c r="B804" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B805" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B806" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B807" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B808" t="s">
         <v>1296</v>
@@ -12449,12 +12455,12 @@
         <v>1297</v>
       </c>
       <c r="B809" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B810" t="s">
         <v>1299</v>
@@ -12481,20 +12487,20 @@
         <v>1304</v>
       </c>
       <c r="B813" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B814" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B815" t="s">
         <v>1307</v>
@@ -12513,12 +12519,12 @@
         <v>1310</v>
       </c>
       <c r="B817" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B818" t="s">
         <v>1312</v>
@@ -12545,12 +12551,12 @@
         <v>1317</v>
       </c>
       <c r="B821" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B822" t="s">
         <v>1319</v>
@@ -12561,12 +12567,12 @@
         <v>1320</v>
       </c>
       <c r="B823" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B824" t="s">
         <v>1322</v>
@@ -12577,12 +12583,12 @@
         <v>1323</v>
       </c>
       <c r="B825" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B826" t="s">
         <v>1325</v>
@@ -12593,12 +12599,12 @@
         <v>1326</v>
       </c>
       <c r="B827" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B828" t="s">
         <v>1328</v>
@@ -12609,12 +12615,12 @@
         <v>1329</v>
       </c>
       <c r="B829" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B830" t="s">
         <v>1331</v>
@@ -12625,28 +12631,28 @@
         <v>1332</v>
       </c>
       <c r="B831" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B832" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B833" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B834" t="s">
         <v>1336</v>
@@ -12657,36 +12663,36 @@
         <v>1337</v>
       </c>
       <c r="B835" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B836" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B837" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B838" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B839" t="s">
         <v>1342</v>
@@ -12697,28 +12703,28 @@
         <v>1343</v>
       </c>
       <c r="B840" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B841" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B842" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B843" t="s">
         <v>1347</v>
@@ -12833,60 +12839,60 @@
         <v>1374</v>
       </c>
       <c r="B857" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B858" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B859" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B860" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B861" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B862" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B863" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B864" t="s">
         <v>1382</v>
@@ -12897,20 +12903,20 @@
         <v>1383</v>
       </c>
       <c r="B865" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B866" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B867" t="s">
         <v>1386</v>
@@ -12993,12 +12999,12 @@
         <v>1405</v>
       </c>
       <c r="B877" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B878" t="s">
         <v>1407</v>
@@ -13017,28 +13023,28 @@
         <v>1410</v>
       </c>
       <c r="B880" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B881" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B882" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B883" t="s">
         <v>1414</v>
@@ -13049,12 +13055,12 @@
         <v>1415</v>
       </c>
       <c r="B884" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B885" t="s">
         <v>1417</v>
@@ -13065,12 +13071,12 @@
         <v>1418</v>
       </c>
       <c r="B886" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B887" t="s">
         <v>1420</v>
@@ -13081,12 +13087,12 @@
         <v>1421</v>
       </c>
       <c r="B888" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B889" t="s">
         <v>1423</v>
@@ -13097,12 +13103,12 @@
         <v>1424</v>
       </c>
       <c r="B890" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B891" t="s">
         <v>1426</v>
@@ -13113,12 +13119,12 @@
         <v>1427</v>
       </c>
       <c r="B892" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B893" t="s">
         <v>1429</v>
@@ -13129,28 +13135,28 @@
         <v>1430</v>
       </c>
       <c r="B894" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B895" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B896" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B897" t="s">
         <v>1434</v>
@@ -13193,60 +13199,60 @@
         <v>1443</v>
       </c>
       <c r="B902" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B903" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B904" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B905" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B906" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B907" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B908" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B909" t="s">
         <v>1451</v>
@@ -13273,28 +13279,28 @@
         <v>1456</v>
       </c>
       <c r="B912" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B913" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B914" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B915" t="s">
         <v>1460</v>
@@ -13337,20 +13343,20 @@
         <v>1469</v>
       </c>
       <c r="B920" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B921" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B922" t="s">
         <v>1472</v>
@@ -13385,12 +13391,12 @@
         <v>1479</v>
       </c>
       <c r="B926" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B927" t="s">
         <v>1481</v>
@@ -13409,20 +13415,20 @@
         <v>1484</v>
       </c>
       <c r="B929" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B930" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B931" t="s">
         <v>1487</v>
@@ -13449,12 +13455,12 @@
         <v>1492</v>
       </c>
       <c r="B934" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B935" t="s">
         <v>1494</v>
@@ -13489,28 +13495,28 @@
         <v>1501</v>
       </c>
       <c r="B939" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B940" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B941" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B942" t="s">
         <v>1505</v>
@@ -13529,52 +13535,52 @@
         <v>1508</v>
       </c>
       <c r="B944" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B945" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B946" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B947" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B948" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B949" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B950" t="s">
         <v>1515</v>
@@ -13609,20 +13615,20 @@
         <v>1522</v>
       </c>
       <c r="B954" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B955" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B956" t="s">
         <v>1525</v>
@@ -13657,12 +13663,12 @@
         <v>1532</v>
       </c>
       <c r="B960" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B961" t="s">
         <v>1534</v>
@@ -13673,36 +13679,36 @@
         <v>1535</v>
       </c>
       <c r="B962" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B963" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B964" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B965" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B966" t="s">
         <v>1540</v>
@@ -13753,28 +13759,28 @@
         <v>1551</v>
       </c>
       <c r="B972" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B973" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B974" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B975" t="s">
         <v>1555</v>
@@ -13793,20 +13799,20 @@
         <v>1558</v>
       </c>
       <c r="B977" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B978" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B979" t="s">
         <v>1561</v>
@@ -13833,20 +13839,20 @@
         <v>1566</v>
       </c>
       <c r="B982" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B983" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B984" t="s">
         <v>1569</v>
@@ -13865,20 +13871,20 @@
         <v>1572</v>
       </c>
       <c r="B986" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B987" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B988" t="s">
         <v>1575</v>
@@ -13905,12 +13911,12 @@
         <v>1580</v>
       </c>
       <c r="B991" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B992" t="s">
         <v>1582</v>
@@ -13929,28 +13935,28 @@
         <v>1585</v>
       </c>
       <c r="B994" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B995" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B996" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B997" t="s">
         <v>1589</v>
@@ -13985,28 +13991,28 @@
         <v>1596</v>
       </c>
       <c r="B1001" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1002" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1003" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1004" t="s">
         <v>1600</v>
@@ -14025,36 +14031,36 @@
         <v>1603</v>
       </c>
       <c r="B1006" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1007" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1008" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1009" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1010" t="s">
         <v>1608</v>
@@ -14073,36 +14079,36 @@
         <v>1611</v>
       </c>
       <c r="B1012" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1013" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1014" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1015" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1016" t="s">
         <v>1616</v>
@@ -14121,12 +14127,12 @@
         <v>1619</v>
       </c>
       <c r="B1018" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1019" t="s">
         <v>1621</v>
@@ -14153,12 +14159,12 @@
         <v>1626</v>
       </c>
       <c r="B1022" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1023" t="s">
         <v>1628</v>
@@ -14169,20 +14175,20 @@
         <v>1629</v>
       </c>
       <c r="B1024" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1025" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1026" t="s">
         <v>1632</v>
@@ -14201,52 +14207,52 @@
         <v>1635</v>
       </c>
       <c r="B1028" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1029" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1030" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1031" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1032" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1033" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1034" t="s">
         <v>1642</v>
@@ -14257,12 +14263,12 @@
         <v>1643</v>
       </c>
       <c r="B1035" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1036" t="s">
         <v>1645</v>
@@ -14289,12 +14295,12 @@
         <v>1650</v>
       </c>
       <c r="B1039" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1040" t="s">
         <v>1652</v>
@@ -14313,12 +14319,12 @@
         <v>1655</v>
       </c>
       <c r="B1042" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1043" t="s">
         <v>1657</v>
@@ -14345,12 +14351,12 @@
         <v>1662</v>
       </c>
       <c r="B1046" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1047" t="s">
         <v>1664</v>
@@ -14465,12 +14471,12 @@
         <v>1691</v>
       </c>
       <c r="B1061" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1062" t="s">
         <v>1693</v>
@@ -14489,12 +14495,12 @@
         <v>1696</v>
       </c>
       <c r="B1064" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1065" t="s">
         <v>1698</v>
@@ -14529,28 +14535,28 @@
         <v>1705</v>
       </c>
       <c r="B1069" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1070" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1071" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1072" t="s">
         <v>1709</v>
@@ -14561,28 +14567,28 @@
         <v>1710</v>
       </c>
       <c r="B1073" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1074" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1075" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1076" t="s">
         <v>1714</v>
@@ -14593,12 +14599,12 @@
         <v>1715</v>
       </c>
       <c r="B1077" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1078" t="s">
         <v>1717</v>
@@ -14617,20 +14623,20 @@
         <v>1720</v>
       </c>
       <c r="B1080" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1081" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1082" t="s">
         <v>1723</v>
@@ -14649,12 +14655,12 @@
         <v>1726</v>
       </c>
       <c r="B1084" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1085" t="s">
         <v>1728</v>
@@ -14697,12 +14703,12 @@
         <v>1737</v>
       </c>
       <c r="B1090" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1091" t="s">
         <v>1739</v>
@@ -14745,12 +14751,12 @@
         <v>1748</v>
       </c>
       <c r="B1096" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1097" t="s">
         <v>1750</v>
@@ -14769,12 +14775,12 @@
         <v>1753</v>
       </c>
       <c r="B1099" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1100" t="s">
         <v>1755</v>
@@ -14785,28 +14791,28 @@
         <v>1756</v>
       </c>
       <c r="B1101" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1102" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1103" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1104" t="s">
         <v>1760</v>
@@ -14833,28 +14839,28 @@
         <v>1765</v>
       </c>
       <c r="B1107" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1108" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1109" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1110" t="s">
         <v>1769</v>
@@ -14897,20 +14903,20 @@
         <v>1778</v>
       </c>
       <c r="B1115" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1116" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1117" t="s">
         <v>1781</v>
@@ -15009,44 +15015,44 @@
         <v>1804</v>
       </c>
       <c r="B1129" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1130" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1131" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1134" t="s">
         <v>1810</v>
@@ -15057,36 +15063,36 @@
         <v>1811</v>
       </c>
       <c r="B1135" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1139" t="s">
         <v>1816</v>
@@ -15105,12 +15111,12 @@
         <v>1819</v>
       </c>
       <c r="B1141" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1142" t="s">
         <v>1821</v>
@@ -15169,12 +15175,12 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15217,36 +15223,36 @@
         <v>1845</v>
       </c>
       <c r="B1155" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1156" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1159" t="s">
         <v>1850</v>
@@ -15257,28 +15263,28 @@
         <v>1851</v>
       </c>
       <c r="B1160" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1161" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1163" t="s">
         <v>1855</v>
@@ -15289,44 +15295,44 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1168" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1169" t="s">
         <v>1862</v>
@@ -15337,12 +15343,12 @@
         <v>1863</v>
       </c>
       <c r="B1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1171" t="s">
         <v>1865</v>
@@ -15353,19 +15359,27 @@
         <v>1866</v>
       </c>
       <c r="B1172" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1173" t="s">
-        <v>1867</v>
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1871">
   <si>
     <t>en</t>
   </si>
@@ -5282,6 +5282,9 @@
   </si>
   <si>
     <t>Skumringsskogen</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5973,7 +5976,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14791,12 +14794,12 @@
         <v>1756</v>
       </c>
       <c r="B1101" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1102" t="s">
         <v>1758</v>
@@ -14823,28 +14826,28 @@
         <v>1761</v>
       </c>
       <c r="B1105" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1763</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B1108" t="s">
         <v>1767</v>
@@ -14871,44 +14874,44 @@
         <v>1770</v>
       </c>
       <c r="B1111" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1772</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1116" t="s">
         <v>1780</v>
@@ -14927,100 +14930,100 @@
         <v>1782</v>
       </c>
       <c r="B1118" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1804</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1130" t="s">
         <v>1806</v>
@@ -15063,12 +15066,12 @@
         <v>1811</v>
       </c>
       <c r="B1135" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1136" t="s">
         <v>1813</v>
@@ -15103,20 +15106,20 @@
         <v>1817</v>
       </c>
       <c r="B1140" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1142" t="s">
         <v>1821</v>
@@ -15127,60 +15130,60 @@
         <v>1822</v>
       </c>
       <c r="B1143" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1826</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1828</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1830</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15191,44 +15194,44 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1841</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1843</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1155" t="s">
         <v>1845</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1156" t="s">
         <v>1847</v>
@@ -15263,12 +15266,12 @@
         <v>1851</v>
       </c>
       <c r="B1160" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1161" t="s">
         <v>1853</v>
@@ -15295,12 +15298,12 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15343,12 +15346,12 @@
         <v>1863</v>
       </c>
       <c r="B1170" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B1171" t="s">
         <v>1865</v>
@@ -15359,12 +15362,12 @@
         <v>1866</v>
       </c>
       <c r="B1172" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1173" t="s">
         <v>1868</v>
@@ -15378,8 +15381,16 @@
         <v>1869</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1870</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1873">
   <si>
     <t>en</t>
   </si>
@@ -2870,6 +2870,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (mutasjoner) Tag</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5976,7 +5982,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10658,12 +10664,12 @@
         <v>951</v>
       </c>
       <c r="B584" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B585" t="s">
         <v>953</v>
@@ -10674,28 +10680,28 @@
         <v>954</v>
       </c>
       <c r="B586" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B587" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B588" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B589" t="s">
         <v>958</v>
@@ -10706,12 +10712,12 @@
         <v>959</v>
       </c>
       <c r="B590" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B591" t="s">
         <v>961</v>
@@ -10722,12 +10728,12 @@
         <v>962</v>
       </c>
       <c r="B592" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B593" t="s">
         <v>964</v>
@@ -10794,12 +10800,12 @@
         <v>979</v>
       </c>
       <c r="B601" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B602" t="s">
         <v>981</v>
@@ -10818,20 +10824,20 @@
         <v>984</v>
       </c>
       <c r="B604" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B605" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B606" t="s">
         <v>987</v>
@@ -10850,12 +10856,12 @@
         <v>990</v>
       </c>
       <c r="B608" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B609" t="s">
         <v>992</v>
@@ -10874,20 +10880,20 @@
         <v>995</v>
       </c>
       <c r="B611" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B612" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B613" t="s">
         <v>998</v>
@@ -10898,12 +10904,12 @@
         <v>999</v>
       </c>
       <c r="B614" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B615" t="s">
         <v>1001</v>
@@ -10922,12 +10928,12 @@
         <v>1004</v>
       </c>
       <c r="B617" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B618" t="s">
         <v>1006</v>
@@ -10970,132 +10976,132 @@
         <v>1015</v>
       </c>
       <c r="B623" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B624" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B625" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B626" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B627" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B628" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B629" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B630" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B631" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B632" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B633" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B634" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B635" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B636" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B637" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B638" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B639" t="s">
         <v>1032</v>
@@ -11106,12 +11112,12 @@
         <v>1033</v>
       </c>
       <c r="B640" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B641" t="s">
         <v>1035</v>
@@ -11122,20 +11128,20 @@
         <v>1036</v>
       </c>
       <c r="B642" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B643" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B644" t="s">
         <v>1039</v>
@@ -11170,28 +11176,28 @@
         <v>1046</v>
       </c>
       <c r="B648" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B649" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B650" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B651" t="s">
         <v>1050</v>
@@ -11202,12 +11208,12 @@
         <v>1051</v>
       </c>
       <c r="B652" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B653" t="s">
         <v>1053</v>
@@ -11234,20 +11240,20 @@
         <v>1058</v>
       </c>
       <c r="B656" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B657" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B658" t="s">
         <v>1061</v>
@@ -11258,12 +11264,12 @@
         <v>1062</v>
       </c>
       <c r="B659" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B660" t="s">
         <v>1064</v>
@@ -11282,20 +11288,20 @@
         <v>1067</v>
       </c>
       <c r="B662" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B663" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B664" t="s">
         <v>1070</v>
@@ -11306,20 +11312,20 @@
         <v>1071</v>
       </c>
       <c r="B665" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B666" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B667" t="s">
         <v>1074</v>
@@ -11330,12 +11336,12 @@
         <v>1075</v>
       </c>
       <c r="B668" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B669" t="s">
         <v>1077</v>
@@ -11354,12 +11360,12 @@
         <v>1080</v>
       </c>
       <c r="B671" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B672" t="s">
         <v>1082</v>
@@ -11378,12 +11384,12 @@
         <v>1085</v>
       </c>
       <c r="B674" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B675" t="s">
         <v>1087</v>
@@ -11394,20 +11400,20 @@
         <v>1088</v>
       </c>
       <c r="B676" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B677" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B678" t="s">
         <v>1091</v>
@@ -11434,20 +11440,20 @@
         <v>1096</v>
       </c>
       <c r="B681" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B682" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B683" t="s">
         <v>1099</v>
@@ -11506,12 +11512,12 @@
         <v>1112</v>
       </c>
       <c r="B690" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B691" t="s">
         <v>1114</v>
@@ -11530,12 +11536,12 @@
         <v>1117</v>
       </c>
       <c r="B693" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B694" t="s">
         <v>1119</v>
@@ -11578,36 +11584,36 @@
         <v>1128</v>
       </c>
       <c r="B699" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B700" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B701" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B702" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B703" t="s">
         <v>1133</v>
@@ -11618,28 +11624,28 @@
         <v>1134</v>
       </c>
       <c r="B704" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B705" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B706" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B707" t="s">
         <v>1138</v>
@@ -11650,36 +11656,36 @@
         <v>1139</v>
       </c>
       <c r="B708" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B709" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B710" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B711" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B712" t="s">
         <v>1144</v>
@@ -11706,36 +11712,36 @@
         <v>1149</v>
       </c>
       <c r="B715" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B716" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B717" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B718" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B719" t="s">
         <v>1154</v>
@@ -11746,12 +11752,12 @@
         <v>1155</v>
       </c>
       <c r="B720" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B721" t="s">
         <v>1157</v>
@@ -11762,12 +11768,12 @@
         <v>1158</v>
       </c>
       <c r="B722" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B723" t="s">
         <v>1160</v>
@@ -11802,12 +11808,12 @@
         <v>1167</v>
       </c>
       <c r="B727" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B728" t="s">
         <v>1169</v>
@@ -11826,12 +11832,12 @@
         <v>1172</v>
       </c>
       <c r="B730" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B731" t="s">
         <v>1174</v>
@@ -11850,12 +11856,12 @@
         <v>1177</v>
       </c>
       <c r="B733" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B734" t="s">
         <v>1179</v>
@@ -11866,20 +11872,20 @@
         <v>1180</v>
       </c>
       <c r="B735" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B736" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B737" t="s">
         <v>1183</v>
@@ -11890,12 +11896,12 @@
         <v>1184</v>
       </c>
       <c r="B738" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B739" t="s">
         <v>1186</v>
@@ -11914,12 +11920,12 @@
         <v>1189</v>
       </c>
       <c r="B741" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B742" t="s">
         <v>1191</v>
@@ -11938,28 +11944,28 @@
         <v>1194</v>
       </c>
       <c r="B744" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B745" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B746" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B747" t="s">
         <v>1198</v>
@@ -12026,12 +12032,12 @@
         <v>1213</v>
       </c>
       <c r="B755" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B756" t="s">
         <v>1215</v>
@@ -12058,12 +12064,12 @@
         <v>1220</v>
       </c>
       <c r="B759" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B760" t="s">
         <v>1222</v>
@@ -12074,20 +12080,20 @@
         <v>1223</v>
       </c>
       <c r="B761" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B762" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B763" t="s">
         <v>1226</v>
@@ -12130,12 +12136,12 @@
         <v>1235</v>
       </c>
       <c r="B768" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B769" t="s">
         <v>1237</v>
@@ -12154,12 +12160,12 @@
         <v>1240</v>
       </c>
       <c r="B771" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B772" t="s">
         <v>1242</v>
@@ -12170,12 +12176,12 @@
         <v>1243</v>
       </c>
       <c r="B773" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B774" t="s">
         <v>1245</v>
@@ -12194,12 +12200,12 @@
         <v>1248</v>
       </c>
       <c r="B776" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B777" t="s">
         <v>1250</v>
@@ -12210,12 +12216,12 @@
         <v>1251</v>
       </c>
       <c r="B778" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B779" t="s">
         <v>1253</v>
@@ -12242,20 +12248,20 @@
         <v>1258</v>
       </c>
       <c r="B782" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B783" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B784" t="s">
         <v>1261</v>
@@ -12282,12 +12288,12 @@
         <v>1266</v>
       </c>
       <c r="B787" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B788" t="s">
         <v>1268</v>
@@ -12298,20 +12304,20 @@
         <v>1269</v>
       </c>
       <c r="B789" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B790" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B791" t="s">
         <v>1272</v>
@@ -12322,36 +12328,36 @@
         <v>1273</v>
       </c>
       <c r="B792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B795" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B796" t="s">
         <v>1278</v>
@@ -12362,20 +12368,20 @@
         <v>1279</v>
       </c>
       <c r="B797" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B798" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B799" t="s">
         <v>1282</v>
@@ -12426,36 +12432,36 @@
         <v>1293</v>
       </c>
       <c r="B805" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B806" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B807" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B808" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B809" t="s">
         <v>1298</v>
@@ -12466,12 +12472,12 @@
         <v>1299</v>
       </c>
       <c r="B810" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B811" t="s">
         <v>1301</v>
@@ -12498,20 +12504,20 @@
         <v>1306</v>
       </c>
       <c r="B814" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B815" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B816" t="s">
         <v>1309</v>
@@ -12530,12 +12536,12 @@
         <v>1312</v>
       </c>
       <c r="B818" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B819" t="s">
         <v>1314</v>
@@ -12562,12 +12568,12 @@
         <v>1319</v>
       </c>
       <c r="B822" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B823" t="s">
         <v>1321</v>
@@ -12578,12 +12584,12 @@
         <v>1322</v>
       </c>
       <c r="B824" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B825" t="s">
         <v>1324</v>
@@ -12594,12 +12600,12 @@
         <v>1325</v>
       </c>
       <c r="B826" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B827" t="s">
         <v>1327</v>
@@ -12610,12 +12616,12 @@
         <v>1328</v>
       </c>
       <c r="B828" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B829" t="s">
         <v>1330</v>
@@ -12626,12 +12632,12 @@
         <v>1331</v>
       </c>
       <c r="B830" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B831" t="s">
         <v>1333</v>
@@ -12642,28 +12648,28 @@
         <v>1334</v>
       </c>
       <c r="B832" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B833" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B834" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B835" t="s">
         <v>1338</v>
@@ -12674,36 +12680,36 @@
         <v>1339</v>
       </c>
       <c r="B836" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B837" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B838" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B839" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B840" t="s">
         <v>1344</v>
@@ -12714,28 +12720,28 @@
         <v>1345</v>
       </c>
       <c r="B841" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B842" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B843" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B844" t="s">
         <v>1349</v>
@@ -12850,60 +12856,60 @@
         <v>1376</v>
       </c>
       <c r="B858" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B860" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B861" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B862" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B863" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B864" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B865" t="s">
         <v>1384</v>
@@ -12914,20 +12920,20 @@
         <v>1385</v>
       </c>
       <c r="B866" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B867" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B868" t="s">
         <v>1388</v>
@@ -13010,12 +13016,12 @@
         <v>1407</v>
       </c>
       <c r="B878" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B879" t="s">
         <v>1409</v>
@@ -13034,28 +13040,28 @@
         <v>1412</v>
       </c>
       <c r="B881" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B882" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B883" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B884" t="s">
         <v>1416</v>
@@ -13066,12 +13072,12 @@
         <v>1417</v>
       </c>
       <c r="B885" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B886" t="s">
         <v>1419</v>
@@ -13082,12 +13088,12 @@
         <v>1420</v>
       </c>
       <c r="B887" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B888" t="s">
         <v>1422</v>
@@ -13098,12 +13104,12 @@
         <v>1423</v>
       </c>
       <c r="B889" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B890" t="s">
         <v>1425</v>
@@ -13114,12 +13120,12 @@
         <v>1426</v>
       </c>
       <c r="B891" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B892" t="s">
         <v>1428</v>
@@ -13130,12 +13136,12 @@
         <v>1429</v>
       </c>
       <c r="B893" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B894" t="s">
         <v>1431</v>
@@ -13146,28 +13152,28 @@
         <v>1432</v>
       </c>
       <c r="B895" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B896" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B897" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B898" t="s">
         <v>1436</v>
@@ -13210,60 +13216,60 @@
         <v>1445</v>
       </c>
       <c r="B903" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B904" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B905" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B906" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B907" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B908" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B909" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B910" t="s">
         <v>1453</v>
@@ -13290,28 +13296,28 @@
         <v>1458</v>
       </c>
       <c r="B913" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B914" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B915" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B916" t="s">
         <v>1462</v>
@@ -13354,20 +13360,20 @@
         <v>1471</v>
       </c>
       <c r="B921" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B922" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B923" t="s">
         <v>1474</v>
@@ -13402,12 +13408,12 @@
         <v>1481</v>
       </c>
       <c r="B927" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B928" t="s">
         <v>1483</v>
@@ -13426,20 +13432,20 @@
         <v>1486</v>
       </c>
       <c r="B930" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B931" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B932" t="s">
         <v>1489</v>
@@ -13466,12 +13472,12 @@
         <v>1494</v>
       </c>
       <c r="B935" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B936" t="s">
         <v>1496</v>
@@ -13506,28 +13512,28 @@
         <v>1503</v>
       </c>
       <c r="B940" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B941" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B942" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B943" t="s">
         <v>1507</v>
@@ -13546,52 +13552,52 @@
         <v>1510</v>
       </c>
       <c r="B945" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B946" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B947" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B948" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B949" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B950" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B951" t="s">
         <v>1517</v>
@@ -13626,20 +13632,20 @@
         <v>1524</v>
       </c>
       <c r="B955" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B956" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B957" t="s">
         <v>1527</v>
@@ -13674,12 +13680,12 @@
         <v>1534</v>
       </c>
       <c r="B961" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B962" t="s">
         <v>1536</v>
@@ -13690,36 +13696,36 @@
         <v>1537</v>
       </c>
       <c r="B963" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B964" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B965" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B966" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B967" t="s">
         <v>1542</v>
@@ -13770,28 +13776,28 @@
         <v>1553</v>
       </c>
       <c r="B973" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B974" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B975" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B976" t="s">
         <v>1557</v>
@@ -13810,20 +13816,20 @@
         <v>1560</v>
       </c>
       <c r="B978" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B979" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B980" t="s">
         <v>1563</v>
@@ -13850,20 +13856,20 @@
         <v>1568</v>
       </c>
       <c r="B983" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B984" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B985" t="s">
         <v>1571</v>
@@ -13882,20 +13888,20 @@
         <v>1574</v>
       </c>
       <c r="B987" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B988" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B989" t="s">
         <v>1577</v>
@@ -13922,12 +13928,12 @@
         <v>1582</v>
       </c>
       <c r="B992" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B993" t="s">
         <v>1584</v>
@@ -13946,28 +13952,28 @@
         <v>1587</v>
       </c>
       <c r="B995" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B996" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B997" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B998" t="s">
         <v>1591</v>
@@ -14002,28 +14008,28 @@
         <v>1598</v>
       </c>
       <c r="B1002" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1003" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1004" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1005" t="s">
         <v>1602</v>
@@ -14042,36 +14048,36 @@
         <v>1605</v>
       </c>
       <c r="B1007" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1008" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1009" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1010" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1011" t="s">
         <v>1610</v>
@@ -14090,36 +14096,36 @@
         <v>1613</v>
       </c>
       <c r="B1013" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1014" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1015" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1016" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1017" t="s">
         <v>1618</v>
@@ -14138,12 +14144,12 @@
         <v>1621</v>
       </c>
       <c r="B1019" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1020" t="s">
         <v>1623</v>
@@ -14170,12 +14176,12 @@
         <v>1628</v>
       </c>
       <c r="B1023" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1024" t="s">
         <v>1630</v>
@@ -14186,20 +14192,20 @@
         <v>1631</v>
       </c>
       <c r="B1025" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1026" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1027" t="s">
         <v>1634</v>
@@ -14218,52 +14224,52 @@
         <v>1637</v>
       </c>
       <c r="B1029" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1030" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1031" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1032" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1033" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1034" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1035" t="s">
         <v>1644</v>
@@ -14274,12 +14280,12 @@
         <v>1645</v>
       </c>
       <c r="B1036" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1037" t="s">
         <v>1647</v>
@@ -14306,12 +14312,12 @@
         <v>1652</v>
       </c>
       <c r="B1040" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1041" t="s">
         <v>1654</v>
@@ -14330,12 +14336,12 @@
         <v>1657</v>
       </c>
       <c r="B1043" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1044" t="s">
         <v>1659</v>
@@ -14362,12 +14368,12 @@
         <v>1664</v>
       </c>
       <c r="B1047" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1048" t="s">
         <v>1666</v>
@@ -14482,12 +14488,12 @@
         <v>1693</v>
       </c>
       <c r="B1062" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1063" t="s">
         <v>1695</v>
@@ -14506,12 +14512,12 @@
         <v>1698</v>
       </c>
       <c r="B1065" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1066" t="s">
         <v>1700</v>
@@ -14546,28 +14552,28 @@
         <v>1707</v>
       </c>
       <c r="B1070" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1071" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1072" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1073" t="s">
         <v>1711</v>
@@ -14578,28 +14584,28 @@
         <v>1712</v>
       </c>
       <c r="B1074" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1075" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1076" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1077" t="s">
         <v>1716</v>
@@ -14610,12 +14616,12 @@
         <v>1717</v>
       </c>
       <c r="B1078" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1079" t="s">
         <v>1719</v>
@@ -14634,20 +14640,20 @@
         <v>1722</v>
       </c>
       <c r="B1081" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1082" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1083" t="s">
         <v>1725</v>
@@ -14666,12 +14672,12 @@
         <v>1728</v>
       </c>
       <c r="B1085" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1086" t="s">
         <v>1730</v>
@@ -14714,12 +14720,12 @@
         <v>1739</v>
       </c>
       <c r="B1091" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1092" t="s">
         <v>1741</v>
@@ -14762,12 +14768,12 @@
         <v>1750</v>
       </c>
       <c r="B1097" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1098" t="s">
         <v>1752</v>
@@ -14786,20 +14792,20 @@
         <v>1755</v>
       </c>
       <c r="B1100" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1101" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1102" t="s">
         <v>1758</v>
@@ -14810,28 +14816,28 @@
         <v>1759</v>
       </c>
       <c r="B1103" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1104" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1105" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1106" t="s">
         <v>1763</v>
@@ -14858,28 +14864,28 @@
         <v>1768</v>
       </c>
       <c r="B1109" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1110" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1111" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1112" t="s">
         <v>1772</v>
@@ -14922,20 +14928,20 @@
         <v>1781</v>
       </c>
       <c r="B1117" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1118" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1119" t="s">
         <v>1784</v>
@@ -15034,44 +15040,44 @@
         <v>1807</v>
       </c>
       <c r="B1131" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1132" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1133" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1134" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1135" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1136" t="s">
         <v>1813</v>
@@ -15082,36 +15088,36 @@
         <v>1814</v>
       </c>
       <c r="B1137" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1138" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1141" t="s">
         <v>1819</v>
@@ -15130,12 +15136,12 @@
         <v>1822</v>
       </c>
       <c r="B1143" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1144" t="s">
         <v>1824</v>
@@ -15194,12 +15200,12 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1152" t="s">
         <v>1839</v>
@@ -15242,36 +15248,36 @@
         <v>1848</v>
       </c>
       <c r="B1157" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1158" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1159" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1160" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1161" t="s">
         <v>1853</v>
@@ -15282,28 +15288,28 @@
         <v>1854</v>
       </c>
       <c r="B1162" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1163" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15314,44 +15320,44 @@
         <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1171" t="s">
         <v>1865</v>
@@ -15362,12 +15368,12 @@
         <v>1866</v>
       </c>
       <c r="B1172" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1173" t="s">
         <v>1868</v>
@@ -15378,19 +15384,27 @@
         <v>1869</v>
       </c>
       <c r="B1174" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1175" t="s">
-        <v>1870</v>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/no/headTags.xlsx
+++ b/lang/no/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1875">
   <si>
     <t>en</t>
   </si>
@@ -2872,2767 +2872,2773 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutasjoner)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Kjæledyr)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismaner)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Det lystige land)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Istid</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Isklatrer</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Iskrem</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ikoner (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikoner (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ikoner (Annet)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ikoner (hvit bakgrunn)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identitet V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Inazuma Elleve</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>De utrolige</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Skader</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Indre lagblokk</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Insekt</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Innenfra og ut</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Uovervinnelig</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak og Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Krukke</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Smykker</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJos bisarre eventyr</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJos bisarre eventyr (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Reise</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Kjøkken</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Koopalinger</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Lampeskjerm</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Landskap</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lykt</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Himmelslottet</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendarisk Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Dødelig liga</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteket i Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Livet er merkelig</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Løvenes konge</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Den lille havfruen</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Små mareritt</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Ringenes Herre</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Kjærlighetssyk skapning</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Kjærlighetssyk person</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Maskindel</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Gal far</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Laget i Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Sminke</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Maos helter med rent hjerte</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria og hekseblomsten</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskot</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maske</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maske (full)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maske (funksjonell)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maske (helse)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Maske (Minecraft-mobb)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Universets mestere</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matematisk symbol</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Måltid</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Kjøtt</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Middelalder</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Middelaldersk taverna</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Middelaldersk krigshjelm</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Skuespillere</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metall</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Mikke Mus</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Militært utstyr</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Aprilsnarr</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft-legender</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft-film</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Gruvearbeider</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Minesveiper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirakuløst: Fortellinger om marihøna og katten Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Fremtidig dagbok)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Frøken Kobayashis dragepike</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizunos ressurspakke</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Hjelm for moderne krigføring</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Penger</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Overvåke</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monsterhøy</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Monsters Inc.</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mumin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montasjer av kaos</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Munnskylling</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Muppetene</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Morddroner</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Sopp</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Sopp (Biom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mushroom (hodeplagg)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musikk</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Min hjortevenn Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Min lille ponni</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Min nabo Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Mine syngende monstre</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä fra Vindens dal</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (inspirert)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilje)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Nøytral skapning</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Nøytral person</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Nyttårsaften</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Natt i skogen</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Mareritt før jul</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Ikke noe spill, ikke noe liv</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noels husfest</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Norrøn mytologi</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Kjernefysisk nedfall</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Antall</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Havet</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Offiserslue</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy og kakerlakkene</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Gammel</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Ett stykke</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Objekter med åpen kildekode</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Malm</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organer og kroppsdeler</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Andre hodeplagg</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Annen belysning</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Andre mystiske skapninger</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Ytre lagblokk</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Smokk</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspirert)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Panda Bjørn</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Pans labyrint</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Parti</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Bakverk og søtsaker</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Lønningsdag</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Peanøtter (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingvin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Periodisk system av grunnstoffer</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Utstyr til kjæledyr</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Gris</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Grisemann</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky og hjernen</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Planter mot zombier</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokémon Generasjon 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokémon Generasjon 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generasjon 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon generasjon 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon generasjon 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon generasjon 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon generasjon 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generasjon 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Generasjon 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokémon-artikler</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Pokémon-trener</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Isbjørn</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Politiet</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Postmann Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Rovdyr</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Til stede</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Stolthet</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primat</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Prinsesse Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Professor Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Gresskar</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Gresskar (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Tegnsettingstegn</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Skjelvet</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Kanin</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Jernbane</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Skapere</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Den gale gudens rike</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Rødhette</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Regional form Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Vanlig show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Reptil</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Bånd</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick og Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risiko for regn</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rivalen til Eteren</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Elv</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Gnager</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Rotert enhet</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Kongelig hodeplagg</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Et stort eventyr</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Trist skapning</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Trist person</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Annet)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Sagaen om Tanya den onde</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samurai-hjelm</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Tilfredsstillende</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Sag</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Skjerf</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Brudd på SCP-inneslutningen</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Skrik</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Sjøfarer</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Endens seraf</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Serieeksperimenter Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>De syv dødssyndene</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Kolossens skygge</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Mordors skygger</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Skinnende Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Frakt</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skjelett</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skjelett (vanilje)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Skeptisk skapning</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Skeptisk person</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Tornerose</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Sovende skapning</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Sovende person</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Skiveskåret</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (vanilje)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Røyking</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smurfene</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Snøkamp</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Snøskulptur</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Snøhvit og de syv dvergene</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Krigens sanger</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Romfart</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Gyteegg</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Edderkopp</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Edderkopp (vanilje)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Edderkoppmannen</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Svampebob Firkant</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spookys Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Sprer seg</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Vår til liv</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Spion x Familie</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Blekksprutspill</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Patrick's Day</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Stjerne mot ondskapens krefter</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Stjernekrigen</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars-hjelm</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper-hjelm</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Start-Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Brevpapir</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Lagring (annet)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Solbriller</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Overnaturlig</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Overrasket skapning</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Overrasket person</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Sump</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Sammenfiltret</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Sladrehank</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Den gangen jeg ble reinkarnert som slim</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tintins eventyr</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Det fantastiske digitale sirkuset</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Gumballs fantastiske verden</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Guttene</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Katten vender tilbake</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Kobberalderen</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Keiserens nye groove</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Det engelske ensemblets stjerner</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finalen</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Lynet</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Flintsteinene</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Fluen</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Hagen våkner</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Den gode dinosauren</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Den store musedetektiven</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Billy &amp; Mandys dystre eventyr</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Ringeren i Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Jernkjempen</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Den siste vokteren</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Den siste av oss</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Legenden om Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Uglehuset</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Prinsessen og frosken</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Veien til El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Motorsagmassakren</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>De tre caballeroene</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Walten-filene</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Disse nettene hos Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom og Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Morgendagens pionerer</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Tannspalte</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Touhou-prosjektet</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Leketøy</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Trafikk</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Trafikklys</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Trafikkskilt</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Stier og fortellinger</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformatorer</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Gjennomsiktig hode</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Søppelbøtte</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Skatt</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Skatteplaneten</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Oppdatering av Tricky Trials</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Skilpadde</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Skumringsskogen</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Når de gråter</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Universelt symbol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Urbant dyreliv</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilje (fjernet)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vaniljeblokk</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vaniljemat</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vaniljehjelm</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vaniljevare</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Grønnsaker</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Kjøretøy</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikinger</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Landsbyboer</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (ørken)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (jungel)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (slettene)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (Snøtundraen)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (Sump)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Landsbyboer (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtuell youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace og Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Krigerkatter</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Vi bjørner bjørner</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Været</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Velkommen hjem</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Hvem er dette?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Vill oppdatering</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Ildens vinger</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Ole Brumm</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Vinter</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>En vidunderlig verden</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Tre</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Ull</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Vernehjelm for arbeid</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Vrak den Rolf</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yandere-simulator</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Ung</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Stjernetegn</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (vanilje)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (mutasjoner) Tag</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Kjæledyr)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismaner)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Det lystige land)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Istid</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Isklatrer</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Iskrem</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ikoner (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikoner (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ikoner (Annet)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ikoner (hvit bakgrunn)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identitet V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Inazuma Elleve</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>De utrolige</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Skader</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Indre lagblokk</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Insekt</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Innenfra og ut</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Uovervinnelig</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Det</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak og Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Krukke</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Smykker</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJos bisarre eventyr</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJos bisarre eventyr (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Reise</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Kjøkken</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Koopalinger</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Lampeskjerm</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Landskap</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lykt</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Himmelslottet</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendarisk Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Dødelig liga</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteket i Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Livet er merkelig</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Løvenes konge</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Den lille havfruen</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Små mareritt</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Ringenes Herre</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Kjærlighetssyk skapning</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Kjærlighetssyk person</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Maskindel</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Gal far</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Laget i Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Sminke</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Maos helter med rent hjerte</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria og hekseblomsten</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskot</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maske</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maske (full)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maske (funksjonell)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maske (helse)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Maske (Minecraft-mobb)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Universets mestere</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matematisk symbol</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Måltid</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Kjøtt</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Middelalder</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Middelaldersk taverna</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Middelaldersk krigshjelm</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Skuespillere</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metall</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Mikke Mus</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Militært utstyr</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Aprilsnarr</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft-legender</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft-film</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Gruvearbeider</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Minesveiper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirakuløst: Fortellinger om marihøna og katten Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Fremtidig dagbok)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Frøken Kobayashis dragepike</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizunos ressurspakke</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Hjelm for moderne krigføring</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Penger</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Overvåke</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monsterhøy</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Monsters Inc.</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mumin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Montasjer av kaos</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Munnskylling</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Muppetene</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Morddroner</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Sopp</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Sopp (Biom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mushroom (hodeplagg)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Musikk</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Min hjortevenn Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Min lille ponni</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Min nabo Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Mine syngende monstre</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä fra Vindens dal</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (inspirert)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilje)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Nøytral skapning</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Nøytral person</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Nyttårsaften</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Natt i skogen</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Mareritt før jul</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Ikke noe spill, ikke noe liv</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noels husfest</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Norrøn mytologi</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Kjernefysisk nedfall</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Antall</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Mutter</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Havet</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Offiserslue</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy og kakerlakkene</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Gammel</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Ett stykke</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Objekter med åpen kildekode</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Malm</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organer og kroppsdeler</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Andre hodeplagg</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Annen belysning</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Andre mystiske skapninger</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Ytre lagblokk</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Smokk</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspirert)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Panda Bjørn</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Pans labyrint</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Parti</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Bakverk og søtsaker</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Lønningsdag</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Peanøtter (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingvin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Periodisk system av grunnstoffer</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Utstyr til kjæledyr</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Gris</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Grisemann</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky og hjernen</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Planter mot zombier</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokémon Generasjon 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokémon Generasjon 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generasjon 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon generasjon 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon generasjon 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon generasjon 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon generasjon 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generasjon 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Generasjon 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokémon-artikler</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Pokémon-trener</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Isbjørn</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Politiet</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Postmann Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Rovdyr</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Til stede</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Stolthet</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primat</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Prinsesse Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Professor Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Gresskar</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Gresskar (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Tegnsettingstegn</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Skjelvet</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Kanin</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Jernbane</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Skapere</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Den gale gudens rike</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Rødhette</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Regional form Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Vanlig show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Reptil</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Bånd</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick og Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risiko for regn</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rivalen til Eteren</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Elv</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Gnager</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Rotert enhet</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Kongelig hodeplagg</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Et stort eventyr</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Trist skapning</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Trist person</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Annet)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Sagaen om Tanya den onde</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samurai-hjelm</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Tilfredsstillende</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Sag</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Skjerf</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Brudd på SCP-inneslutningen</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Skrik</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Sjøfarer</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Endens seraf</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Serieeksperimenter Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>De syv dødssyndene</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Kolossens skygge</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Mordors skygger</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Sau</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Skinnende Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Frakt</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skjelett</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skjelett (vanilje)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Skeptisk skapning</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Skeptisk person</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Tornerose</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Sovende skapning</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Sovende person</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Skiveskåret</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (vanilje)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Røyking</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smurfene</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Snøkamp</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Snøskulptur</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Snøhvit og de syv dvergene</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Krigens sanger</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Romfart</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Gyteegg</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Edderkopp</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Edderkopp (vanilje)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Edderkoppmannen</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Svampebob Firkant</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spookys Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Sprer seg</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Vår til liv</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Spion x Familie</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Blekksprutspill</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Patrick's Day</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Stjerne mot ondskapens krefter</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Stjernekrigen</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars-hjelm</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper-hjelm</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Start-Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Brevpapir</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Lagring (annet)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Sommer</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Solbriller</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Overnaturlig</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Overrasket skapning</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Overrasket person</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Sump</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Sammenfiltret</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Sladrehank</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Den gangen jeg ble reinkarnert som slim</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tintins eventyr</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Det fantastiske digitale sirkuset</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Gumballs fantastiske verden</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Guttene</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Katten vender tilbake</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Kobberalderen</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Keiserens nye groove</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Det engelske ensemblets stjerner</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finalen</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Lynet</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Flintsteinene</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Fluen</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Hagen våkner</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Den gode dinosauren</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Den store musedetektiven</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Billy &amp; Mandys dystre eventyr</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Ringeren i Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Jernkjempen</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Den siste vokteren</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>Den siste av oss</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Legenden om Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Uglehuset</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Prinsessen og frosken</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Veien til El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Motorsagmassakren</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>De tre caballeroene</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Walten-filene</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Disse nettene hos Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom og Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Morgendagens pionerer</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Tannspalte</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Touhou-prosjektet</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Leketøy</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Trafikk</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Trafikklys</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Trafikkskilt</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Stier og fortellinger</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformatorer</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Gjennomsiktig hode</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Søppelbøtte</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Skatt</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Skatteplaneten</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Oppdatering av Tricky Trials</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Skilpadde</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Skumringsskogen</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Når de gråter</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Universelt symbol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Opp</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Urbant dyreliv</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilje (fjernet)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vaniljeblokk</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vaniljemat</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vaniljehjelm</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vaniljevare</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Grønnsaker</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Kjøretøy</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikinger</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Landsbyboer</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (ørken)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (jungel)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (slettene)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (Snøtundraen)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (Sump)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Landsbyboer (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtuell youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace og Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Krigerkatter</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Vi bjørner bjørner</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Været</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Velkommen hjem</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Hvem er dette?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Vill oppdatering</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Ildens vinger</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Ole Brumm</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Vinter</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>En vidunderlig verden</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Tre</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Ull</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Vernehjelm for arbeid</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Vrak den Rolf</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yandere-simulator</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Ung</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Stjernetegn</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (vanilje)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5982,7 +5988,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15400,11 +15406,19 @@
         <v>1872</v>
       </c>
       <c r="B1176" t="s">
-        <v>1872</v>
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1874</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
